--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_21_17.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_21_17.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-258848.3886023048</v>
+        <v>-261329.3084277628</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10721426.73834738</v>
+        <v>10721426.73834739</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673425</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>46.74827830186902</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>338.3527451838811</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.26761520104937</v>
+        <v>82.26761520104938</v>
       </c>
       <c r="T11" t="n">
         <v>176.9978235524937</v>
@@ -1427,7 +1427,7 @@
         <v>224.0750253717755</v>
       </c>
       <c r="V11" t="n">
-        <v>300.8321118830085</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1436,7 +1436,7 @@
         <v>342.8109540913426</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>347.580390184878</v>
       </c>
     </row>
     <row r="12">
@@ -1464,10 +1464,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1531,16 +1531,16 @@
         <v>140.3266745115014</v>
       </c>
       <c r="D13" t="n">
-        <v>15.74573437260323</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>119.5138160594427</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>118.5009014358048</v>
       </c>
       <c r="G13" t="n">
-        <v>139.1056616719017</v>
+        <v>139.1056616719018</v>
       </c>
       <c r="H13" t="n">
         <v>117.8348683271943</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>23.8836510331829</v>
       </c>
       <c r="S13" t="n">
         <v>162.8488787443154</v>
@@ -1591,10 +1591,10 @@
         <v>259.6028517494645</v>
       </c>
       <c r="X13" t="n">
-        <v>198.7895088019107</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>191.6645067649683</v>
       </c>
     </row>
     <row r="14">
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>355.8136950763541</v>
       </c>
       <c r="C14" t="n">
         <v>338.3527451838811</v>
       </c>
       <c r="D14" t="n">
-        <v>327.7628950335565</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>355.0102234851353</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>379.955899154585</v>
       </c>
       <c r="G14" t="n">
         <v>384.001579066327</v>
       </c>
       <c r="H14" t="n">
-        <v>267.687617800194</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>14.65678318579953</v>
+        <v>14.65678318579947</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,22 +1655,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>82.26761520104937</v>
       </c>
       <c r="T14" t="n">
-        <v>176.9978235524937</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>224.0750253717755</v>
       </c>
       <c r="V14" t="n">
-        <v>113.508507155498</v>
+        <v>300.8321118830085</v>
       </c>
       <c r="W14" t="n">
         <v>322.3208221302866</v>
       </c>
       <c r="X14" t="n">
-        <v>342.8109540913426</v>
+        <v>109.8984763180885</v>
       </c>
       <c r="Y14" t="n">
         <v>359.3177920689271</v>
@@ -1701,10 +1701,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1783,7 +1783,7 @@
         <v>117.8348683271943</v>
       </c>
       <c r="I16" t="n">
-        <v>69.43227382271166</v>
+        <v>69.43227382271164</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>1.731299166488693</v>
+        <v>62.01200608292088</v>
       </c>
       <c r="S16" t="n">
         <v>162.8488787443154</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>192.6288026890427</v>
       </c>
       <c r="U16" t="n">
         <v>259.2916916184864</v>
@@ -1825,7 +1825,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>259.6028517494645</v>
+        <v>6.693342143989244</v>
       </c>
       <c r="X16" t="n">
         <v>198.7895088019107</v>
@@ -1841,22 +1841,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>308.8385584577615</v>
+        <v>308.8385584577616</v>
       </c>
       <c r="C17" t="n">
-        <v>291.3776085652884</v>
+        <v>291.3776085652885</v>
       </c>
       <c r="D17" t="n">
-        <v>280.7877584149638</v>
+        <v>280.7877584149639</v>
       </c>
       <c r="E17" t="n">
-        <v>308.0350868665427</v>
+        <v>308.0350868665428</v>
       </c>
       <c r="F17" t="n">
-        <v>332.9807625359923</v>
+        <v>332.9807625359924</v>
       </c>
       <c r="G17" t="n">
-        <v>337.0264424477343</v>
+        <v>337.0264424477344</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>35.29247858245675</v>
+        <v>35.29247858245679</v>
       </c>
       <c r="T17" t="n">
-        <v>130.022686933901</v>
+        <v>130.0226869339011</v>
       </c>
       <c r="U17" t="n">
         <v>177.0998887531829</v>
       </c>
       <c r="V17" t="n">
-        <v>253.8569752644158</v>
+        <v>141.5173381326156</v>
       </c>
       <c r="W17" t="n">
-        <v>275.3456855116939</v>
+        <v>275.345685511694</v>
       </c>
       <c r="X17" t="n">
-        <v>295.8358174727499</v>
+        <v>295.83581747275</v>
       </c>
       <c r="Y17" t="n">
-        <v>200.0030183185342</v>
+        <v>312.3426554503346</v>
       </c>
     </row>
     <row r="18">
@@ -1938,10 +1938,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>105.9366969762182</v>
+        <v>105.9366969762183</v>
       </c>
       <c r="C19" t="n">
-        <v>93.35153789290872</v>
+        <v>93.35153789290881</v>
       </c>
       <c r="D19" t="n">
-        <v>74.72018981249325</v>
+        <v>74.72018981249333</v>
       </c>
       <c r="E19" t="n">
-        <v>72.53867944085006</v>
+        <v>72.53867944085015</v>
       </c>
       <c r="F19" t="n">
-        <v>133.9254590121763</v>
+        <v>71.52576481721222</v>
       </c>
       <c r="G19" t="n">
-        <v>92.13052505330911</v>
+        <v>92.1305250533092</v>
       </c>
       <c r="H19" t="n">
-        <v>70.85973170860167</v>
+        <v>70.85973170860176</v>
       </c>
       <c r="I19" t="n">
-        <v>22.457137204119</v>
+        <v>22.45713720411907</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>15.03686946432823</v>
+        <v>15.0368694643283</v>
       </c>
       <c r="S19" t="n">
-        <v>115.8737421257228</v>
+        <v>115.8737421257229</v>
       </c>
       <c r="T19" t="n">
-        <v>145.6536660704501</v>
+        <v>145.6536660704502</v>
       </c>
       <c r="U19" t="n">
-        <v>212.3165549998937</v>
+        <v>274.7162491948569</v>
       </c>
       <c r="V19" t="n">
-        <v>178.2423601181089</v>
+        <v>178.242360118109</v>
       </c>
       <c r="W19" t="n">
-        <v>212.6277151308719</v>
+        <v>212.627715130872</v>
       </c>
       <c r="X19" t="n">
-        <v>151.814372183318</v>
+        <v>151.8143721833181</v>
       </c>
       <c r="Y19" t="n">
-        <v>144.6893701463757</v>
+        <v>144.6893701463758</v>
       </c>
     </row>
     <row r="20">
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>271.6222576171095</v>
+        <v>308.8385584577616</v>
       </c>
       <c r="C20" t="n">
-        <v>291.3776085652884</v>
+        <v>291.3776085652885</v>
       </c>
       <c r="D20" t="n">
-        <v>280.7877584149638</v>
+        <v>280.7877584149639</v>
       </c>
       <c r="E20" t="n">
-        <v>308.0350868665427</v>
+        <v>308.0350868665428</v>
       </c>
       <c r="F20" t="n">
-        <v>332.9807625359923</v>
+        <v>332.9807625359924</v>
       </c>
       <c r="G20" t="n">
-        <v>337.0264424477343</v>
+        <v>337.0264424477344</v>
       </c>
       <c r="H20" t="n">
-        <v>220.7124811816013</v>
+        <v>220.7124811816014</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>35.29247858245675</v>
+        <v>35.29247858245681</v>
       </c>
       <c r="T20" t="n">
-        <v>130.022686933901</v>
+        <v>130.0226869339011</v>
       </c>
       <c r="U20" t="n">
         <v>177.0998887531829</v>
       </c>
       <c r="V20" t="n">
-        <v>253.8569752644158</v>
+        <v>253.8569752644159</v>
       </c>
       <c r="W20" t="n">
-        <v>275.3456855116939</v>
+        <v>275.345685511694</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>275.1263546096811</v>
       </c>
       <c r="Y20" t="n">
-        <v>312.3426554503345</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2175,10 +2175,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>105.9366969762182</v>
+        <v>105.9366969762183</v>
       </c>
       <c r="C22" t="n">
-        <v>93.35153789290872</v>
+        <v>93.35153789290881</v>
       </c>
       <c r="D22" t="n">
-        <v>74.72018981249325</v>
+        <v>74.72018981249333</v>
       </c>
       <c r="E22" t="n">
-        <v>72.53867944085006</v>
+        <v>72.53867944085015</v>
       </c>
       <c r="F22" t="n">
-        <v>133.9254590121763</v>
+        <v>71.52576481721222</v>
       </c>
       <c r="G22" t="n">
-        <v>92.13052505330911</v>
+        <v>92.1305250533092</v>
       </c>
       <c r="H22" t="n">
-        <v>70.85973170860167</v>
+        <v>133.2594259035649</v>
       </c>
       <c r="I22" t="n">
-        <v>22.457137204119</v>
+        <v>22.45713720411907</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>15.03686946432823</v>
+        <v>15.0368694643283</v>
       </c>
       <c r="S22" t="n">
-        <v>115.8737421257228</v>
+        <v>115.8737421257229</v>
       </c>
       <c r="T22" t="n">
-        <v>145.6536660704501</v>
+        <v>145.6536660704502</v>
       </c>
       <c r="U22" t="n">
-        <v>212.3165549998937</v>
+        <v>212.3165549998938</v>
       </c>
       <c r="V22" t="n">
-        <v>178.2423601181089</v>
+        <v>178.242360118109</v>
       </c>
       <c r="W22" t="n">
-        <v>212.6277151308719</v>
+        <v>212.627715130872</v>
       </c>
       <c r="X22" t="n">
-        <v>151.814372183318</v>
+        <v>151.8143721833181</v>
       </c>
       <c r="Y22" t="n">
-        <v>144.6893701463757</v>
+        <v>144.6893701463758</v>
       </c>
     </row>
     <row r="23">
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>308.8385584577615</v>
+        <v>308.8385584577616</v>
       </c>
       <c r="C23" t="n">
-        <v>291.3776085652884</v>
+        <v>291.3776085652885</v>
       </c>
       <c r="D23" t="n">
-        <v>280.7877584149638</v>
+        <v>280.7877584149639</v>
       </c>
       <c r="E23" t="n">
-        <v>308.0350868665427</v>
+        <v>308.0350868665428</v>
       </c>
       <c r="F23" t="n">
-        <v>332.9807625359923</v>
+        <v>332.9807625359924</v>
       </c>
       <c r="G23" t="n">
-        <v>337.0264424477343</v>
+        <v>337.0264424477344</v>
       </c>
       <c r="H23" t="n">
-        <v>220.7124811816013</v>
+        <v>220.7124811816014</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,25 +2366,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>35.29247858245675</v>
+        <v>35.29247858245682</v>
       </c>
       <c r="T23" t="n">
-        <v>130.022686933901</v>
+        <v>130.0226869339011</v>
       </c>
       <c r="U23" t="n">
         <v>177.0998887531829</v>
       </c>
       <c r="V23" t="n">
-        <v>253.8569752644158</v>
+        <v>253.8569752644159</v>
       </c>
       <c r="W23" t="n">
-        <v>275.3456855116939</v>
+        <v>275.345685511694</v>
       </c>
       <c r="X23" t="n">
-        <v>295.8358174727499</v>
+        <v>295.83581747275</v>
       </c>
       <c r="Y23" t="n">
-        <v>312.3426554503345</v>
+        <v>312.3426554503346</v>
       </c>
     </row>
     <row r="24">
@@ -2415,7 +2415,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I24" t="n">
-        <v>18.8172186824763</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>105.9366969762182</v>
+        <v>105.9366969762183</v>
       </c>
       <c r="C25" t="n">
-        <v>93.35153789290872</v>
+        <v>93.35153789290881</v>
       </c>
       <c r="D25" t="n">
-        <v>74.72018981249325</v>
+        <v>74.72018981249333</v>
       </c>
       <c r="E25" t="n">
-        <v>72.53867944085006</v>
+        <v>72.53867944085015</v>
       </c>
       <c r="F25" t="n">
-        <v>71.52576481721213</v>
+        <v>133.9254590121749</v>
       </c>
       <c r="G25" t="n">
-        <v>92.13052505330911</v>
+        <v>92.1305250533092</v>
       </c>
       <c r="H25" t="n">
-        <v>70.85973170860167</v>
+        <v>70.85973170860176</v>
       </c>
       <c r="I25" t="n">
-        <v>22.457137204119</v>
+        <v>22.45713720411909</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>15.03686946432823</v>
+        <v>15.03686946432832</v>
       </c>
       <c r="S25" t="n">
-        <v>115.8737421257228</v>
+        <v>115.8737421257229</v>
       </c>
       <c r="T25" t="n">
-        <v>208.0533602654144</v>
+        <v>145.6536660704502</v>
       </c>
       <c r="U25" t="n">
-        <v>212.3165549998937</v>
+        <v>212.3165549998938</v>
       </c>
       <c r="V25" t="n">
-        <v>178.2423601181089</v>
+        <v>178.242360118109</v>
       </c>
       <c r="W25" t="n">
-        <v>212.6277151308719</v>
+        <v>212.627715130872</v>
       </c>
       <c r="X25" t="n">
-        <v>151.814372183318</v>
+        <v>151.8143721833181</v>
       </c>
       <c r="Y25" t="n">
-        <v>144.6893701463757</v>
+        <v>144.6893701463758</v>
       </c>
     </row>
     <row r="26">
@@ -2713,25 +2713,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C28" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D28" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E28" t="n">
-        <v>99.45882602797658</v>
+        <v>99.4588260279766</v>
       </c>
       <c r="F28" t="n">
-        <v>98.44591140433866</v>
+        <v>98.44591140433867</v>
       </c>
       <c r="G28" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H28" t="n">
-        <v>97.7798782957282</v>
+        <v>97.77987829572821</v>
       </c>
       <c r="I28" t="n">
-        <v>49.37728379124552</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.95701605145476</v>
+        <v>41.95701605145479</v>
       </c>
       <c r="S28" t="n">
         <v>142.7938887128493</v>
@@ -2795,16 +2795,16 @@
         <v>318.297755152415</v>
       </c>
       <c r="D29" t="n">
-        <v>307.7079050020903</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E29" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F29" t="n">
-        <v>359.9009091231188</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G29" t="n">
-        <v>363.9465890348608</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H29" t="n">
         <v>247.6326277687279</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>62.21262516958326</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T29" t="n">
         <v>156.9428335210276</v>
@@ -2852,10 +2852,10 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W29" t="n">
-        <v>302.2658320988204</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X29" t="n">
-        <v>322.7559640598764</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y29" t="n">
         <v>339.262802037461</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2950,25 +2950,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C31" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D31" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E31" t="n">
-        <v>99.45882602797658</v>
+        <v>99.4588260279766</v>
       </c>
       <c r="F31" t="n">
-        <v>98.44591140433866</v>
+        <v>98.44591140433867</v>
       </c>
       <c r="G31" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H31" t="n">
-        <v>97.7798782957282</v>
+        <v>97.77987829572821</v>
       </c>
       <c r="I31" t="n">
-        <v>49.37728379124552</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.95701605145476</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S31" t="n">
         <v>142.7938887128493</v>
@@ -3026,25 +3026,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>335.758705044888</v>
+        <v>335.7587050448881</v>
       </c>
       <c r="C32" t="n">
         <v>318.297755152415</v>
       </c>
       <c r="D32" t="n">
-        <v>307.7079050020903</v>
+        <v>307.7079050020905</v>
       </c>
       <c r="E32" t="n">
-        <v>334.9552334536692</v>
+        <v>334.9552334536693</v>
       </c>
       <c r="F32" t="n">
-        <v>359.9009091231188</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G32" t="n">
-        <v>363.9465890348608</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H32" t="n">
-        <v>247.6326277687279</v>
+        <v>247.632627768728</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>62.21262516958325</v>
+        <v>62.21262516958333</v>
       </c>
       <c r="T32" t="n">
-        <v>156.9428335210276</v>
+        <v>156.9428335210277</v>
       </c>
       <c r="U32" t="n">
         <v>204.0200353403094</v>
       </c>
       <c r="V32" t="n">
-        <v>280.7771218515423</v>
+        <v>280.7771218515424</v>
       </c>
       <c r="W32" t="n">
-        <v>302.2658320988204</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X32" t="n">
-        <v>322.7559640598764</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y32" t="n">
-        <v>339.262802037461</v>
+        <v>339.2628020374611</v>
       </c>
     </row>
     <row r="33">
@@ -3123,10 +3123,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H33" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>132.8568435633447</v>
+        <v>132.8568435633448</v>
       </c>
       <c r="C34" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D34" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E34" t="n">
-        <v>99.45882602797658</v>
+        <v>99.45882602797666</v>
       </c>
       <c r="F34" t="n">
-        <v>98.44591140433866</v>
+        <v>98.44591140433873</v>
       </c>
       <c r="G34" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H34" t="n">
-        <v>97.7798782957282</v>
+        <v>97.77987829572827</v>
       </c>
       <c r="I34" t="n">
-        <v>49.37728379124551</v>
+        <v>49.3772837912456</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.95701605145474</v>
+        <v>41.95701605145484</v>
       </c>
       <c r="S34" t="n">
-        <v>142.7938887128493</v>
+        <v>142.7938887128494</v>
       </c>
       <c r="T34" t="n">
-        <v>172.5738126575766</v>
+        <v>172.5738126575767</v>
       </c>
       <c r="U34" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V34" t="n">
-        <v>205.1625067052354</v>
+        <v>205.1625067052355</v>
       </c>
       <c r="W34" t="n">
-        <v>239.5478617179984</v>
+        <v>239.5478617179985</v>
       </c>
       <c r="X34" t="n">
-        <v>178.7345187704446</v>
+        <v>178.7345187704447</v>
       </c>
       <c r="Y34" t="n">
-        <v>171.6095167335022</v>
+        <v>171.6095167335023</v>
       </c>
     </row>
     <row r="35">
@@ -3275,13 +3275,13 @@
         <v>284.2456498441568</v>
       </c>
       <c r="F35" t="n">
-        <v>309.1913255136065</v>
+        <v>309.1913255136064</v>
       </c>
       <c r="G35" t="n">
         <v>313.2370054253485</v>
       </c>
       <c r="H35" t="n">
-        <v>196.9230441592156</v>
+        <v>196.9230441592155</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>11.50304156007091</v>
+        <v>11.50304156007087</v>
       </c>
       <c r="T35" t="n">
         <v>106.2332499115152</v>
@@ -3323,16 +3323,16 @@
         <v>153.310451730797</v>
       </c>
       <c r="V35" t="n">
-        <v>230.06753824203</v>
+        <v>230.0675382420299</v>
       </c>
       <c r="W35" t="n">
-        <v>251.5562484893081</v>
+        <v>251.556248489308</v>
       </c>
       <c r="X35" t="n">
-        <v>272.0463804503641</v>
+        <v>272.046380450364</v>
       </c>
       <c r="Y35" t="n">
-        <v>288.5532184279487</v>
+        <v>288.5532184279486</v>
       </c>
     </row>
     <row r="36">
@@ -3421,25 +3421,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>82.14725995383236</v>
+        <v>82.14725995383232</v>
       </c>
       <c r="C37" t="n">
-        <v>69.5621008705229</v>
+        <v>69.56210087052285</v>
       </c>
       <c r="D37" t="n">
-        <v>50.93075279010742</v>
+        <v>50.93075279010738</v>
       </c>
       <c r="E37" t="n">
-        <v>48.74924241846423</v>
+        <v>48.74924241846419</v>
       </c>
       <c r="F37" t="n">
-        <v>47.73632779482631</v>
+        <v>47.73632779482627</v>
       </c>
       <c r="G37" t="n">
-        <v>68.34108803092329</v>
+        <v>68.34108803092325</v>
       </c>
       <c r="H37" t="n">
-        <v>47.07029468621585</v>
+        <v>47.0702946862158</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004734</v>
+        <v>42.20693826439368</v>
       </c>
       <c r="S37" t="n">
-        <v>92.08430510333696</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>172.8237348705153</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>154.452923095723</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>188.838278108486</v>
       </c>
       <c r="X37" t="n">
         <v>128.0249351609322</v>
       </c>
       <c r="Y37" t="n">
-        <v>120.8999331239899</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3512,7 +3512,7 @@
         <v>284.2456498441568</v>
       </c>
       <c r="F38" t="n">
-        <v>309.1913255136065</v>
+        <v>309.1913255136064</v>
       </c>
       <c r="G38" t="n">
         <v>313.2370054253485</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>11.5030415600709</v>
+        <v>11.50304156007087</v>
       </c>
       <c r="T38" t="n">
         <v>106.2332499115152</v>
@@ -3560,16 +3560,16 @@
         <v>153.310451730797</v>
       </c>
       <c r="V38" t="n">
-        <v>230.06753824203</v>
+        <v>230.0675382420299</v>
       </c>
       <c r="W38" t="n">
-        <v>251.5562484893081</v>
+        <v>251.556248489308</v>
       </c>
       <c r="X38" t="n">
-        <v>272.0463804503641</v>
+        <v>272.046380450364</v>
       </c>
       <c r="Y38" t="n">
-        <v>288.5532184279487</v>
+        <v>288.5532184279486</v>
       </c>
     </row>
     <row r="39">
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3658,25 +3658,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>82.14725995383235</v>
+        <v>82.14725995383232</v>
       </c>
       <c r="C40" t="n">
-        <v>69.56210087052288</v>
+        <v>111.7690391349164</v>
       </c>
       <c r="D40" t="n">
-        <v>50.93075279010741</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>48.74924241846422</v>
+        <v>48.74924241846419</v>
       </c>
       <c r="F40" t="n">
-        <v>47.73632779482629</v>
+        <v>47.73632779482627</v>
       </c>
       <c r="G40" t="n">
-        <v>68.34108803092327</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
-        <v>47.07029468621583</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3709,19 +3709,19 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>134.2912433677303</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>219.5489492761692</v>
+        <v>121.8642290480642</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2118382056129</v>
+        <v>188.5271179775079</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>154.452923095723</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>188.838278108486</v>
       </c>
       <c r="X40" t="n">
         <v>128.0249351609322</v>
@@ -3740,7 +3740,7 @@
         <v>285.0491214353756</v>
       </c>
       <c r="C41" t="n">
-        <v>267.5881715429025</v>
+        <v>267.5881715429026</v>
       </c>
       <c r="D41" t="n">
         <v>256.998321392578</v>
@@ -3755,7 +3755,7 @@
         <v>313.2370054253485</v>
       </c>
       <c r="H41" t="n">
-        <v>196.9230441592154</v>
+        <v>196.9230441592155</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,10 +3788,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>11.50304156007083</v>
+        <v>11.50304156007086</v>
       </c>
       <c r="T41" t="n">
-        <v>106.2332499115151</v>
+        <v>106.2332499115152</v>
       </c>
       <c r="U41" t="n">
         <v>153.310451730797</v>
@@ -3806,7 +3806,7 @@
         <v>272.046380450364</v>
       </c>
       <c r="Y41" t="n">
-        <v>288.5532184279485</v>
+        <v>288.5532184279486</v>
       </c>
     </row>
     <row r="42">
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>82.14725995383228</v>
+        <v>82.1472599538323</v>
       </c>
       <c r="C43" t="n">
-        <v>69.56210087052281</v>
+        <v>69.56210087052284</v>
       </c>
       <c r="D43" t="n">
-        <v>50.93075279010733</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>48.74924241846415</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>47.73632779482622</v>
+        <v>47.73632779482625</v>
       </c>
       <c r="G43" t="n">
-        <v>110.548026295317</v>
+        <v>68.34108803092323</v>
       </c>
       <c r="H43" t="n">
-        <v>47.07029468621576</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>92.08430510333687</v>
+        <v>92.0843051033369</v>
       </c>
       <c r="T43" t="n">
         <v>121.8642290480642</v>
       </c>
       <c r="U43" t="n">
-        <v>188.5271179775078</v>
+        <v>188.5271179775079</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>154.452923095723</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>188.838278108486</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>128.0249351609322</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>164.4391712066505</v>
       </c>
     </row>
     <row r="44">
@@ -3977,13 +3977,13 @@
         <v>285.0491214353756</v>
       </c>
       <c r="C44" t="n">
-        <v>267.5881715429025</v>
+        <v>267.5881715429026</v>
       </c>
       <c r="D44" t="n">
         <v>256.998321392578</v>
       </c>
       <c r="E44" t="n">
-        <v>284.2456498441568</v>
+        <v>284.2456498441552</v>
       </c>
       <c r="F44" t="n">
         <v>309.1913255136064</v>
@@ -3992,7 +3992,7 @@
         <v>313.2370054253485</v>
       </c>
       <c r="H44" t="n">
-        <v>196.9230441592154</v>
+        <v>196.9230441592155</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,10 +4025,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>11.50304156007083</v>
+        <v>11.50304156007086</v>
       </c>
       <c r="T44" t="n">
-        <v>106.2332499115151</v>
+        <v>106.2332499115152</v>
       </c>
       <c r="U44" t="n">
         <v>153.310451730797</v>
@@ -4043,7 +4043,7 @@
         <v>272.046380450364</v>
       </c>
       <c r="Y44" t="n">
-        <v>288.5532184279485</v>
+        <v>288.5532184279486</v>
       </c>
     </row>
     <row r="45">
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>82.14725995383228</v>
+        <v>82.1472599538323</v>
       </c>
       <c r="C46" t="n">
-        <v>69.56210087052281</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>50.93075279010733</v>
+        <v>50.93075279010736</v>
       </c>
       <c r="E46" t="n">
-        <v>48.74924241846415</v>
+        <v>48.74924241846418</v>
       </c>
       <c r="F46" t="n">
-        <v>47.73632779482622</v>
+        <v>47.73632779482625</v>
       </c>
       <c r="G46" t="n">
-        <v>68.3410880309232</v>
+        <v>68.34108803092323</v>
       </c>
       <c r="H46" t="n">
-        <v>47.07029468621576</v>
+        <v>90.60953276887646</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,13 +4183,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>189.7690253314419</v>
+        <v>92.0843051033369</v>
       </c>
       <c r="T46" t="n">
-        <v>219.5489492761692</v>
+        <v>121.8642290480642</v>
       </c>
       <c r="U46" t="n">
-        <v>230.734056241902</v>
+        <v>188.5271179775079</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4198,7 +4198,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>128.0249351609321</v>
+        <v>128.0249351609322</v>
       </c>
       <c r="Y46" t="n">
         <v>120.8999331239898</v>
@@ -5015,40 +5015,40 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2140.018136355091</v>
+        <v>2140.018136355092</v>
       </c>
       <c r="C11" t="n">
-        <v>1798.247686674403</v>
+        <v>1798.247686674404</v>
       </c>
       <c r="D11" t="n">
-        <v>1467.174055327376</v>
+        <v>1467.174055327377</v>
       </c>
       <c r="E11" t="n">
         <v>1108.577869988856</v>
       </c>
       <c r="F11" t="n">
-        <v>724.7840324589722</v>
+        <v>724.7840324589724</v>
       </c>
       <c r="G11" t="n">
-        <v>336.9036495636925</v>
+        <v>336.9036495636927</v>
       </c>
       <c r="H11" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218357</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218357</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810558</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N11" t="n">
         <v>2120.555556060171</v>
@@ -5066,25 +5066,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3242.507220395989</v>
+        <v>3242.50722039599</v>
       </c>
       <c r="T11" t="n">
-        <v>3063.721540039935</v>
+        <v>3063.721540039936</v>
       </c>
       <c r="U11" t="n">
-        <v>2837.383130573495</v>
+        <v>2837.383130573497</v>
       </c>
       <c r="V11" t="n">
-        <v>2533.512310489648</v>
+        <v>2837.383130573497</v>
       </c>
       <c r="W11" t="n">
-        <v>2533.512310489648</v>
+        <v>2837.383130573497</v>
       </c>
       <c r="X11" t="n">
-        <v>2187.238619488292</v>
+        <v>2491.10943957214</v>
       </c>
       <c r="Y11" t="n">
-        <v>2187.238619488292</v>
+        <v>2140.018136355092</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G12" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H12" t="n">
         <v>85.51940803064548</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228011</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031485</v>
       </c>
       <c r="L12" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M12" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X12" t="n">
         <v>1317.519490266131</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="13">
@@ -5173,19 +5173,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>674.5515394274914</v>
+        <v>657.6236111484601</v>
       </c>
       <c r="C13" t="n">
-        <v>532.8074237593082</v>
+        <v>515.8794954802769</v>
       </c>
       <c r="D13" t="n">
-        <v>516.9026415647595</v>
+        <v>515.8794954802769</v>
       </c>
       <c r="E13" t="n">
-        <v>396.1816152420901</v>
+        <v>515.8794954802769</v>
       </c>
       <c r="F13" t="n">
-        <v>396.1816152420901</v>
+        <v>396.1816152420902</v>
       </c>
       <c r="G13" t="n">
         <v>255.6708458765328</v>
@@ -5194,16 +5194,16 @@
         <v>136.6457263541144</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J13" t="n">
-        <v>138.2856940003742</v>
+        <v>138.2856940003743</v>
       </c>
       <c r="K13" t="n">
-        <v>368.9238220705055</v>
+        <v>368.9238220705058</v>
       </c>
       <c r="L13" t="n">
-        <v>712.1345656402568</v>
+        <v>712.1345656402572</v>
       </c>
       <c r="M13" t="n">
         <v>1082.942556361061</v>
@@ -5212,7 +5212,7 @@
         <v>1451.001878188181</v>
       </c>
       <c r="O13" t="n">
-        <v>1776.982422229849</v>
+        <v>1776.98242222985</v>
       </c>
       <c r="P13" t="n">
         <v>2036.240867784764</v>
@@ -5221,28 +5221,28 @@
         <v>2140.502109058534</v>
       </c>
       <c r="R13" t="n">
-        <v>2140.502109058534</v>
+        <v>2116.377209025016</v>
       </c>
       <c r="S13" t="n">
-        <v>1976.008292145084</v>
+        <v>1951.883392111566</v>
       </c>
       <c r="T13" t="n">
-        <v>1781.433743974334</v>
+        <v>1757.308843940815</v>
       </c>
       <c r="U13" t="n">
-        <v>1519.522944359701</v>
+        <v>1495.398044326183</v>
       </c>
       <c r="V13" t="n">
-        <v>1292.030523413538</v>
+        <v>1267.90562338002</v>
       </c>
       <c r="W13" t="n">
-        <v>1029.805420636301</v>
+        <v>1005.680520602783</v>
       </c>
       <c r="X13" t="n">
-        <v>829.0079369980074</v>
+        <v>1005.680520602783</v>
       </c>
       <c r="Y13" t="n">
-        <v>829.0079369980074</v>
+        <v>812.0800087189762</v>
       </c>
     </row>
     <row r="14">
@@ -5252,28 +5252,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1771.029130326015</v>
+        <v>1553.357803377363</v>
       </c>
       <c r="C14" t="n">
-        <v>1429.258680645327</v>
+        <v>1211.587353696675</v>
       </c>
       <c r="D14" t="n">
-        <v>1098.1850492983</v>
+        <v>1211.587353696675</v>
       </c>
       <c r="E14" t="n">
-        <v>739.5888639597799</v>
+        <v>852.9911683581547</v>
       </c>
       <c r="F14" t="n">
-        <v>739.5888639597799</v>
+        <v>469.1973308282708</v>
       </c>
       <c r="G14" t="n">
-        <v>351.7084810645001</v>
+        <v>81.31694793299098</v>
       </c>
       <c r="H14" t="n">
-        <v>81.31694793299103</v>
+        <v>81.31694793299098</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J14" t="n">
         <v>255.3912473912092</v>
@@ -5282,46 +5282,46 @@
         <v>589.2106210810557</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O14" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R14" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
-        <v>3325.605821609171</v>
+        <v>3242.50722039599</v>
       </c>
       <c r="T14" t="n">
-        <v>3146.820141253116</v>
+        <v>3242.50722039599</v>
       </c>
       <c r="U14" t="n">
-        <v>2920.481731786676</v>
+        <v>3016.168810929551</v>
       </c>
       <c r="V14" t="n">
-        <v>2805.82667405385</v>
+        <v>2712.297990845704</v>
       </c>
       <c r="W14" t="n">
-        <v>2480.250086043459</v>
+        <v>2386.721402835313</v>
       </c>
       <c r="X14" t="n">
-        <v>2133.976395042103</v>
+        <v>2275.71284089785</v>
       </c>
       <c r="Y14" t="n">
-        <v>1771.029130326015</v>
+        <v>1912.765576181761</v>
       </c>
     </row>
     <row r="15">
@@ -5331,70 +5331,70 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G15" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064585</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228011</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031485</v>
       </c>
       <c r="L15" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158139</v>
       </c>
       <c r="M15" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N15" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O15" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q15" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R15" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S15" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T15" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U15" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V15" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W15" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X15" t="n">
         <v>1317.519490266131</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>901.2692096237409</v>
+        <v>901.2692096237416</v>
       </c>
       <c r="C16" t="n">
-        <v>759.5250939555577</v>
+        <v>759.5250939555584</v>
       </c>
       <c r="D16" t="n">
-        <v>636.6005218029457</v>
+        <v>636.6005218029463</v>
       </c>
       <c r="E16" t="n">
-        <v>515.8794954802763</v>
+        <v>515.8794954802769</v>
       </c>
       <c r="F16" t="n">
-        <v>396.1816152420898</v>
+        <v>396.1816152420902</v>
       </c>
       <c r="G16" t="n">
-        <v>255.6708458765324</v>
+        <v>255.6708458765329</v>
       </c>
       <c r="H16" t="n">
-        <v>136.6457263541144</v>
+        <v>136.6457263541143</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J16" t="n">
         <v>138.2856940003741</v>
@@ -5440,7 +5440,7 @@
         <v>368.9238220705057</v>
       </c>
       <c r="L16" t="n">
-        <v>712.1345656402568</v>
+        <v>712.1345656402571</v>
       </c>
       <c r="M16" t="n">
         <v>1082.942556361061</v>
@@ -5449,7 +5449,7 @@
         <v>1451.001878188181</v>
       </c>
       <c r="O16" t="n">
-        <v>1776.982422229849</v>
+        <v>1776.98242222985</v>
       </c>
       <c r="P16" t="n">
         <v>2036.240867784764</v>
@@ -5458,28 +5458,28 @@
         <v>2140.502109058534</v>
       </c>
       <c r="R16" t="n">
-        <v>2138.753322021676</v>
+        <v>2077.863719075785</v>
       </c>
       <c r="S16" t="n">
-        <v>1974.259505108227</v>
+        <v>1913.369902162336</v>
       </c>
       <c r="T16" t="n">
-        <v>1974.259505108227</v>
+        <v>1718.795353991585</v>
       </c>
       <c r="U16" t="n">
-        <v>1712.348705493594</v>
+        <v>1456.884554376953</v>
       </c>
       <c r="V16" t="n">
-        <v>1712.348705493594</v>
+        <v>1456.884554376953</v>
       </c>
       <c r="W16" t="n">
-        <v>1450.123602716357</v>
+        <v>1450.123602716358</v>
       </c>
       <c r="X16" t="n">
-        <v>1249.326119078063</v>
+        <v>1249.326119078064</v>
       </c>
       <c r="Y16" t="n">
-        <v>1055.725607194257</v>
+        <v>1055.725607194258</v>
       </c>
     </row>
     <row r="17">
@@ -5498,10 +5498,10 @@
         <v>1054.433623351648</v>
       </c>
       <c r="E17" t="n">
-        <v>743.2870709612008</v>
+        <v>743.2870709612006</v>
       </c>
       <c r="F17" t="n">
-        <v>406.9428663793899</v>
+        <v>406.94286637939</v>
       </c>
       <c r="G17" t="n">
         <v>66.51211643218343</v>
@@ -5513,10 +5513,10 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L17" t="n">
         <v>1040.244834329464</v>
@@ -5531,13 +5531,13 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R17" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S17" t="n">
         <v>3289.956853344064</v>
@@ -5546,19 +5546,19 @@
         <v>3158.620805936083</v>
       </c>
       <c r="U17" t="n">
-        <v>2979.732029417716</v>
+        <v>2979.732029417717</v>
       </c>
       <c r="V17" t="n">
-        <v>2723.310842281943</v>
+        <v>2836.785223223155</v>
       </c>
       <c r="W17" t="n">
-        <v>2445.183887219626</v>
+        <v>2558.658268160838</v>
       </c>
       <c r="X17" t="n">
-        <v>2146.359829166343</v>
+        <v>2259.834210107555</v>
       </c>
       <c r="Y17" t="n">
-        <v>1944.336578339541</v>
+        <v>1944.33657833954</v>
       </c>
     </row>
     <row r="18">
@@ -5586,19 +5586,19 @@
         <v>176.021302392778</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064551</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I18" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L18" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M18" t="n">
         <v>1212.428070438129</v>
@@ -5610,10 +5610,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P18" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q18" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R18" t="n">
         <v>2564.909189125856</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>632.1517731235554</v>
+        <v>569.1217789872285</v>
       </c>
       <c r="C19" t="n">
-        <v>537.8572904034455</v>
+        <v>474.8272962671186</v>
       </c>
       <c r="D19" t="n">
-        <v>462.3823511989069</v>
+        <v>399.3523570625799</v>
       </c>
       <c r="E19" t="n">
-        <v>389.1109578243108</v>
+        <v>326.0809636879837</v>
       </c>
       <c r="F19" t="n">
-        <v>253.8327163978701</v>
+        <v>253.8327163978704</v>
       </c>
       <c r="G19" t="n">
-        <v>160.7715799803862</v>
+        <v>160.7715799803863</v>
       </c>
       <c r="H19" t="n">
-        <v>89.19609340604102</v>
+        <v>89.19609340604109</v>
       </c>
       <c r="I19" t="n">
         <v>66.51211643218343</v>
@@ -5674,13 +5674,13 @@
         <v>111.634748879119</v>
       </c>
       <c r="K19" t="n">
-        <v>315.6219318279953</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L19" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M19" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N19" t="n">
         <v>1317.747152581905</v>
@@ -5692,10 +5692,10 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q19" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R19" t="n">
-        <v>1912.105791053817</v>
+        <v>1912.105791053818</v>
       </c>
       <c r="S19" t="n">
         <v>1795.061607088441</v>
@@ -5704,19 +5704,19 @@
         <v>1647.936691865764</v>
       </c>
       <c r="U19" t="n">
-        <v>1433.475525199204</v>
+        <v>1370.445531062878</v>
       </c>
       <c r="V19" t="n">
-        <v>1253.432737201115</v>
+        <v>1190.402743064788</v>
       </c>
       <c r="W19" t="n">
-        <v>1038.657267371951</v>
+        <v>975.6272732356247</v>
       </c>
       <c r="X19" t="n">
-        <v>885.3094166817309</v>
+        <v>822.2794225454043</v>
       </c>
       <c r="Y19" t="n">
-        <v>739.1585377459979</v>
+        <v>676.1285436096712</v>
       </c>
     </row>
     <row r="20">
@@ -5726,34 +5726,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1855.320338666651</v>
+        <v>1855.320338666652</v>
       </c>
       <c r="C20" t="n">
         <v>1560.999521934037</v>
       </c>
       <c r="D20" t="n">
-        <v>1277.375523535083</v>
+        <v>1277.375523535084</v>
       </c>
       <c r="E20" t="n">
-        <v>966.2289711446359</v>
+        <v>966.2289711446365</v>
       </c>
       <c r="F20" t="n">
-        <v>629.8847665628255</v>
+        <v>629.8847665628259</v>
       </c>
       <c r="G20" t="n">
-        <v>289.4540166156191</v>
+        <v>289.4540166156193</v>
       </c>
       <c r="H20" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I20" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L20" t="n">
         <v>1040.244834329464</v>
@@ -5762,10 +5762,10 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O20" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P20" t="n">
         <v>3018.302393296685</v>
@@ -5774,10 +5774,10 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R20" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S20" t="n">
-        <v>3289.956853344063</v>
+        <v>3289.956853344062</v>
       </c>
       <c r="T20" t="n">
         <v>3158.620805936082</v>
@@ -5786,16 +5786,16 @@
         <v>2979.732029417715</v>
       </c>
       <c r="V20" t="n">
-        <v>2723.310842281942</v>
+        <v>2723.310842281941</v>
       </c>
       <c r="W20" t="n">
-        <v>2445.183887219625</v>
+        <v>2445.183887219624</v>
       </c>
       <c r="X20" t="n">
-        <v>2445.183887219625</v>
+        <v>2167.278478522977</v>
       </c>
       <c r="Y20" t="n">
-        <v>2129.686255451611</v>
+        <v>2167.278478522977</v>
       </c>
     </row>
     <row r="21">
@@ -5805,52 +5805,52 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D21" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G21" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I21" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J21" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L21" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N21" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O21" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P21" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q21" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R21" t="n">
         <v>2564.909189125856</v>
@@ -5862,7 +5862,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U21" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V21" t="n">
         <v>1779.608347199865</v>
@@ -5871,10 +5871,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X21" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y21" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="22">
@@ -5884,40 +5884,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>632.1517731235554</v>
+        <v>632.1517731235549</v>
       </c>
       <c r="C22" t="n">
-        <v>537.8572904034455</v>
+        <v>537.8572904034449</v>
       </c>
       <c r="D22" t="n">
-        <v>462.3823511989069</v>
+        <v>462.3823511989062</v>
       </c>
       <c r="E22" t="n">
-        <v>389.1109578243108</v>
+        <v>389.1109578243101</v>
       </c>
       <c r="F22" t="n">
-        <v>253.8327163978701</v>
+        <v>316.8627105341968</v>
       </c>
       <c r="G22" t="n">
-        <v>160.7715799803861</v>
+        <v>223.8015741167127</v>
       </c>
       <c r="H22" t="n">
-        <v>89.196093406041</v>
+        <v>89.19609340604106</v>
       </c>
       <c r="I22" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J22" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K22" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L22" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M22" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N22" t="n">
         <v>1317.747152581905</v>
@@ -5929,10 +5929,10 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q22" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R22" t="n">
-        <v>1912.105791053817</v>
+        <v>1912.105791053818</v>
       </c>
       <c r="S22" t="n">
         <v>1795.061607088441</v>
@@ -5941,7 +5941,7 @@
         <v>1647.936691865764</v>
       </c>
       <c r="U22" t="n">
-        <v>1433.475525199204</v>
+        <v>1433.475525199205</v>
       </c>
       <c r="V22" t="n">
         <v>1253.432737201115</v>
@@ -5950,10 +5950,10 @@
         <v>1038.657267371951</v>
       </c>
       <c r="X22" t="n">
-        <v>885.3094166817309</v>
+        <v>885.3094166817307</v>
       </c>
       <c r="Y22" t="n">
-        <v>739.1585377459979</v>
+        <v>739.1585377459976</v>
       </c>
     </row>
     <row r="23">
@@ -5963,55 +5963,55 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1862.185977056951</v>
+        <v>1862.18597705695</v>
       </c>
       <c r="C23" t="n">
-        <v>1567.865160324336</v>
+        <v>1567.865160324335</v>
       </c>
       <c r="D23" t="n">
-        <v>1284.241161925383</v>
+        <v>1284.241161925382</v>
       </c>
       <c r="E23" t="n">
-        <v>973.0946095349353</v>
+        <v>973.094609534935</v>
       </c>
       <c r="F23" t="n">
-        <v>636.7504049531249</v>
+        <v>636.7504049531244</v>
       </c>
       <c r="G23" t="n">
-        <v>296.3196550059181</v>
+        <v>296.3196550059182</v>
       </c>
       <c r="H23" t="n">
-        <v>73.37775482248237</v>
+        <v>73.37775482248239</v>
       </c>
       <c r="I23" t="n">
-        <v>73.37775482248237</v>
+        <v>73.37775482248239</v>
       </c>
       <c r="J23" t="n">
-        <v>262.2568857815078</v>
+        <v>429.6625348018608</v>
       </c>
       <c r="K23" t="n">
-        <v>596.0762594713542</v>
+        <v>763.4819084917071</v>
       </c>
       <c r="L23" t="n">
-        <v>1047.110472719763</v>
+        <v>1214.516121740116</v>
       </c>
       <c r="M23" t="n">
-        <v>1917.058658516337</v>
+        <v>1748.04802641204</v>
       </c>
       <c r="N23" t="n">
-        <v>2463.837475575119</v>
+        <v>2294.826843470822</v>
       </c>
       <c r="O23" t="n">
-        <v>2966.809946454456</v>
+        <v>2797.799314350159</v>
       </c>
       <c r="P23" t="n">
-        <v>3361.584312811633</v>
+        <v>3192.573680707337</v>
       </c>
       <c r="Q23" t="n">
-        <v>3609.870674567316</v>
+        <v>3609.870674567317</v>
       </c>
       <c r="R23" t="n">
-        <v>3668.887741124118</v>
+        <v>3668.887741124119</v>
       </c>
       <c r="S23" t="n">
         <v>3633.238772859011</v>
@@ -6020,7 +6020,7 @@
         <v>3501.90272545103</v>
       </c>
       <c r="U23" t="n">
-        <v>3323.013948932663</v>
+        <v>3323.013948932664</v>
       </c>
       <c r="V23" t="n">
         <v>3066.59276179689</v>
@@ -6042,31 +6042,31 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>948.4094928714064</v>
+        <v>948.4094928714077</v>
       </c>
       <c r="C24" t="n">
-        <v>773.9564635902794</v>
+        <v>773.9564635902807</v>
       </c>
       <c r="D24" t="n">
-        <v>625.0220539290282</v>
+        <v>625.0220539290294</v>
       </c>
       <c r="E24" t="n">
-        <v>465.7845989235727</v>
+        <v>465.7845989235739</v>
       </c>
       <c r="F24" t="n">
-        <v>319.2500409504577</v>
+        <v>319.2500409504589</v>
       </c>
       <c r="G24" t="n">
-        <v>182.8869407830758</v>
+        <v>182.886940783077</v>
       </c>
       <c r="H24" t="n">
-        <v>92.38504642094328</v>
+        <v>92.38504642094446</v>
       </c>
       <c r="I24" t="n">
-        <v>73.37775482248237</v>
+        <v>73.37775482248239</v>
       </c>
       <c r="J24" t="n">
-        <v>167.0550243130996</v>
+        <v>167.0550243130997</v>
       </c>
       <c r="K24" t="n">
         <v>405.3192232934467</v>
@@ -6090,28 +6090,28 @@
         <v>2571.919180923639</v>
       </c>
       <c r="R24" t="n">
-        <v>2571.774827516154</v>
+        <v>2571.774827516155</v>
       </c>
       <c r="S24" t="n">
-        <v>2442.336941009634</v>
+        <v>2442.336941009635</v>
       </c>
       <c r="T24" t="n">
-        <v>2249.69394068749</v>
+        <v>2249.693940687491</v>
       </c>
       <c r="U24" t="n">
-        <v>2021.626093821905</v>
+        <v>2021.626093821907</v>
       </c>
       <c r="V24" t="n">
-        <v>1786.473985590163</v>
+        <v>1786.473985590164</v>
       </c>
       <c r="W24" t="n">
-        <v>1532.236628861961</v>
+        <v>1532.236628861962</v>
       </c>
       <c r="X24" t="n">
-        <v>1324.385128656428</v>
+        <v>1324.38512865643</v>
       </c>
       <c r="Y24" t="n">
-        <v>1116.624829891475</v>
+        <v>1116.624829891476</v>
       </c>
     </row>
     <row r="25">
@@ -6121,34 +6121,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>575.9874173775268</v>
+        <v>639.0174115138534</v>
       </c>
       <c r="C25" t="n">
-        <v>481.692934657417</v>
+        <v>544.7229287937434</v>
       </c>
       <c r="D25" t="n">
-        <v>406.2179954528783</v>
+        <v>469.2479895892047</v>
       </c>
       <c r="E25" t="n">
-        <v>332.9466020782823</v>
+        <v>395.9765962146086</v>
       </c>
       <c r="F25" t="n">
-        <v>260.698354788169</v>
+        <v>260.6983547881694</v>
       </c>
       <c r="G25" t="n">
-        <v>167.6372183706851</v>
+        <v>167.6372183706853</v>
       </c>
       <c r="H25" t="n">
-        <v>96.06173179633996</v>
+        <v>96.06173179634006</v>
       </c>
       <c r="I25" t="n">
-        <v>73.37775482248237</v>
+        <v>73.37775482248239</v>
       </c>
       <c r="J25" t="n">
         <v>118.5003872694179</v>
       </c>
       <c r="K25" t="n">
-        <v>322.4875702182942</v>
+        <v>322.4875702182943</v>
       </c>
       <c r="L25" t="n">
         <v>639.0473686667904</v>
@@ -6172,25 +6172,25 @@
         <v>1918.971429444116</v>
       </c>
       <c r="S25" t="n">
-        <v>1801.92724547874</v>
+        <v>1801.927245478739</v>
       </c>
       <c r="T25" t="n">
-        <v>1591.772336119735</v>
+        <v>1654.802330256063</v>
       </c>
       <c r="U25" t="n">
-        <v>1377.311169453176</v>
+        <v>1440.341163589503</v>
       </c>
       <c r="V25" t="n">
-        <v>1197.268381455086</v>
+        <v>1260.298375591413</v>
       </c>
       <c r="W25" t="n">
-        <v>982.4929116259225</v>
+        <v>1045.52290576225</v>
       </c>
       <c r="X25" t="n">
-        <v>829.1450609357023</v>
+        <v>892.1750550720292</v>
       </c>
       <c r="Y25" t="n">
-        <v>682.9941819999693</v>
+        <v>746.0241761362961</v>
       </c>
     </row>
     <row r="26">
@@ -6200,10 +6200,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2033.107542689499</v>
+        <v>2033.1075426895</v>
       </c>
       <c r="C26" t="n">
-        <v>1711.594658697161</v>
+        <v>1711.594658697162</v>
       </c>
       <c r="D26" t="n">
         <v>1400.778593038484</v>
@@ -6212,16 +6212,16 @@
         <v>1062.439973388313</v>
       </c>
       <c r="F26" t="n">
-        <v>698.9037015467788</v>
+        <v>698.9037015467793</v>
       </c>
       <c r="G26" t="n">
-        <v>331.2808843398486</v>
+        <v>331.2808843398487</v>
       </c>
       <c r="H26" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="I26" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J26" t="n">
         <v>437.4316968760676</v>
@@ -6230,43 +6230,43 @@
         <v>771.251070565914</v>
       </c>
       <c r="L26" t="n">
-        <v>1222.285283814323</v>
+        <v>1496.733761127194</v>
       </c>
       <c r="M26" t="n">
-        <v>1755.817188486247</v>
+        <v>2030.265665799118</v>
       </c>
       <c r="N26" t="n">
-        <v>2302.596005545029</v>
+        <v>2577.0444828579</v>
       </c>
       <c r="O26" t="n">
-        <v>3182.560655874483</v>
+        <v>3080.016953737237</v>
       </c>
       <c r="P26" t="n">
-        <v>3577.335022231661</v>
+        <v>3474.791320094415</v>
       </c>
       <c r="Q26" t="n">
-        <v>3998.328778277655</v>
+        <v>3933.269522603403</v>
       </c>
       <c r="R26" t="n">
         <v>4057.345844834458</v>
       </c>
       <c r="S26" t="n">
-        <v>3994.504809309626</v>
+        <v>3994.504809309627</v>
       </c>
       <c r="T26" t="n">
-        <v>3835.976694641921</v>
+        <v>3835.976694641922</v>
       </c>
       <c r="U26" t="n">
-        <v>3629.895850863831</v>
+        <v>3629.895850863832</v>
       </c>
       <c r="V26" t="n">
-        <v>3346.282596468333</v>
+        <v>3346.282596468334</v>
       </c>
       <c r="W26" t="n">
         <v>3040.963574146293</v>
       </c>
       <c r="X26" t="n">
-        <v>2714.947448833286</v>
+        <v>2714.947448833287</v>
       </c>
       <c r="Y26" t="n">
         <v>2372.257749805548</v>
@@ -6300,28 +6300,28 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I27" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J27" t="n">
-        <v>174.8241863873071</v>
+        <v>174.8241863873064</v>
       </c>
       <c r="K27" t="n">
-        <v>413.0883853676542</v>
+        <v>413.0883853676535</v>
       </c>
       <c r="L27" t="n">
-        <v>779.7865456803195</v>
+        <v>779.7865456803188</v>
       </c>
       <c r="M27" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N27" t="n">
-        <v>1700.58591445709</v>
+        <v>1700.585914457089</v>
       </c>
       <c r="O27" t="n">
         <v>2111.547193875144</v>
       </c>
       <c r="P27" t="n">
-        <v>2422.046785351247</v>
+        <v>2422.046785351246</v>
       </c>
       <c r="Q27" t="n">
         <v>2579.688342997847</v>
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>774.1010502697999</v>
+        <v>774.1010502698</v>
       </c>
       <c r="C28" t="n">
-        <v>652.6145002899663</v>
+        <v>652.6145002899664</v>
       </c>
       <c r="D28" t="n">
-        <v>549.9474938257039</v>
+        <v>549.947493825704</v>
       </c>
       <c r="E28" t="n">
-        <v>449.4840331913841</v>
+        <v>449.4840331913842</v>
       </c>
       <c r="F28" t="n">
-        <v>350.0437186415471</v>
+        <v>350.0437186415472</v>
       </c>
       <c r="G28" t="n">
         <v>229.7905149643394</v>
@@ -6379,28 +6379,28 @@
         <v>131.0229611302705</v>
       </c>
       <c r="I28" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J28" t="n">
         <v>172.7749345960314</v>
       </c>
       <c r="K28" t="n">
-        <v>423.2675027973139</v>
+        <v>423.2675027973143</v>
       </c>
       <c r="L28" t="n">
-        <v>786.3326864982166</v>
+        <v>786.3326864982171</v>
       </c>
       <c r="M28" t="n">
-        <v>1176.995117350172</v>
+        <v>1176.995117350173</v>
       </c>
       <c r="N28" t="n">
-        <v>1564.908879308443</v>
+        <v>1564.908879308444</v>
       </c>
       <c r="O28" t="n">
-        <v>1910.743863481263</v>
+        <v>1910.743863481264</v>
       </c>
       <c r="P28" t="n">
-        <v>2189.856749167329</v>
+        <v>2189.85674916733</v>
       </c>
       <c r="Q28" t="n">
         <v>2313.972430572251</v>
@@ -6427,7 +6427,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y28" t="n">
-        <v>908.2998821519662</v>
+        <v>908.2998821519664</v>
       </c>
     </row>
     <row r="29">
@@ -6437,28 +6437,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2033.1075426895</v>
+        <v>2033.107542689501</v>
       </c>
       <c r="C29" t="n">
-        <v>1711.594658697162</v>
+        <v>1711.594658697163</v>
       </c>
       <c r="D29" t="n">
-        <v>1400.778593038485</v>
+        <v>1400.778593038486</v>
       </c>
       <c r="E29" t="n">
-        <v>1062.439973388314</v>
+        <v>1062.439973388315</v>
       </c>
       <c r="F29" t="n">
-        <v>698.9037015467795</v>
+        <v>698.9037015467804</v>
       </c>
       <c r="G29" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H29" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668919</v>
       </c>
       <c r="I29" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668919</v>
       </c>
       <c r="J29" t="n">
         <v>437.4316968760676</v>
@@ -6482,31 +6482,31 @@
         <v>3645.361240939448</v>
       </c>
       <c r="Q29" t="n">
-        <v>3933.269522603403</v>
+        <v>3998.328778277657</v>
       </c>
       <c r="R29" t="n">
-        <v>4057.345844834459</v>
+        <v>4057.34584483446</v>
       </c>
       <c r="S29" t="n">
-        <v>3994.504809309627</v>
+        <v>3994.504809309628</v>
       </c>
       <c r="T29" t="n">
-        <v>3835.976694641922</v>
+        <v>3835.976694641923</v>
       </c>
       <c r="U29" t="n">
-        <v>3629.895850863832</v>
+        <v>3629.895850863833</v>
       </c>
       <c r="V29" t="n">
-        <v>3346.282596468335</v>
+        <v>3346.282596468336</v>
       </c>
       <c r="W29" t="n">
-        <v>3040.963574146294</v>
+        <v>3040.963574146295</v>
       </c>
       <c r="X29" t="n">
-        <v>2714.947448833287</v>
+        <v>2714.947448833288</v>
       </c>
       <c r="Y29" t="n">
-        <v>2372.257749805549</v>
+        <v>2372.25774980555</v>
       </c>
     </row>
     <row r="30">
@@ -6516,34 +6516,34 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>956.1786549456143</v>
+        <v>956.1786549456145</v>
       </c>
       <c r="C30" t="n">
-        <v>781.7256256644873</v>
+        <v>781.7256256644876</v>
       </c>
       <c r="D30" t="n">
-        <v>632.7912160032361</v>
+        <v>632.7912160032363</v>
       </c>
       <c r="E30" t="n">
-        <v>473.5537609977806</v>
+        <v>473.5537609977807</v>
       </c>
       <c r="F30" t="n">
-        <v>327.0192030246656</v>
+        <v>327.0192030246657</v>
       </c>
       <c r="G30" t="n">
-        <v>190.6561028572837</v>
+        <v>190.6561028572838</v>
       </c>
       <c r="H30" t="n">
-        <v>100.1542084951512</v>
+        <v>100.1542084951513</v>
       </c>
       <c r="I30" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668919</v>
       </c>
       <c r="J30" t="n">
-        <v>174.8241863873064</v>
+        <v>174.8241863873065</v>
       </c>
       <c r="K30" t="n">
-        <v>413.0883853676535</v>
+        <v>413.0883853676536</v>
       </c>
       <c r="L30" t="n">
         <v>779.7865456803188</v>
@@ -6558,10 +6558,10 @@
         <v>2111.547193875144</v>
       </c>
       <c r="P30" t="n">
-        <v>2422.046785351246</v>
+        <v>2422.046785351247</v>
       </c>
       <c r="Q30" t="n">
-        <v>2579.688342997846</v>
+        <v>2579.688342997847</v>
       </c>
       <c r="R30" t="n">
         <v>2579.543989590362</v>
@@ -6585,7 +6585,7 @@
         <v>1332.154290730636</v>
       </c>
       <c r="Y30" t="n">
-        <v>1124.393991965682</v>
+        <v>1124.393991965683</v>
       </c>
     </row>
     <row r="31">
@@ -6595,49 +6595,49 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>774.1010502698</v>
+        <v>774.1010502697998</v>
       </c>
       <c r="C31" t="n">
-        <v>652.6145002899664</v>
+        <v>652.6145002899661</v>
       </c>
       <c r="D31" t="n">
-        <v>549.947493825704</v>
+        <v>549.9474938257038</v>
       </c>
       <c r="E31" t="n">
-        <v>449.4840331913842</v>
+        <v>449.4840331913839</v>
       </c>
       <c r="F31" t="n">
-        <v>350.0437186415472</v>
+        <v>350.0437186415468</v>
       </c>
       <c r="G31" t="n">
-        <v>229.7905149643395</v>
+        <v>229.7905149643391</v>
       </c>
       <c r="H31" t="n">
-        <v>131.0229611302705</v>
+        <v>131.0229611302703</v>
       </c>
       <c r="I31" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668919</v>
       </c>
       <c r="J31" t="n">
-        <v>172.7749345960314</v>
+        <v>172.7749345960313</v>
       </c>
       <c r="K31" t="n">
-        <v>423.2675027973144</v>
+        <v>423.2675027973141</v>
       </c>
       <c r="L31" t="n">
-        <v>786.3326864982171</v>
+        <v>786.3326864982168</v>
       </c>
       <c r="M31" t="n">
-        <v>1176.995117350173</v>
+        <v>1176.995117350172</v>
       </c>
       <c r="N31" t="n">
-        <v>1564.908879308444</v>
+        <v>1564.908879308443</v>
       </c>
       <c r="O31" t="n">
-        <v>1910.743863481264</v>
+        <v>1910.743863481263</v>
       </c>
       <c r="P31" t="n">
-        <v>2189.85674916733</v>
+        <v>2189.856749167329</v>
       </c>
       <c r="Q31" t="n">
         <v>2313.972430572251</v>
@@ -6655,7 +6655,7 @@
         <v>1711.385138644068</v>
       </c>
       <c r="V31" t="n">
-        <v>1504.150283386255</v>
+        <v>1504.150283386254</v>
       </c>
       <c r="W31" t="n">
         <v>1262.182746297367</v>
@@ -6664,7 +6664,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y31" t="n">
-        <v>908.2998821519664</v>
+        <v>908.2998821519661</v>
       </c>
     </row>
     <row r="32">
@@ -6674,61 +6674,61 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2033.107542689501</v>
+        <v>2033.1075426895</v>
       </c>
       <c r="C32" t="n">
-        <v>1711.594658697163</v>
+        <v>1711.594658697162</v>
       </c>
       <c r="D32" t="n">
-        <v>1400.778593038486</v>
+        <v>1400.778593038485</v>
       </c>
       <c r="E32" t="n">
-        <v>1062.439973388315</v>
+        <v>1062.439973388314</v>
       </c>
       <c r="F32" t="n">
-        <v>698.9037015467806</v>
+        <v>698.9037015467793</v>
       </c>
       <c r="G32" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H32" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668919</v>
       </c>
       <c r="I32" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668919</v>
       </c>
       <c r="J32" t="n">
         <v>270.0260478557146</v>
       </c>
       <c r="K32" t="n">
-        <v>603.8454215455611</v>
+        <v>603.845421545561</v>
       </c>
       <c r="L32" t="n">
         <v>1054.87963479397</v>
       </c>
       <c r="M32" t="n">
-        <v>2033.429937623799</v>
+        <v>2033.429937623798</v>
       </c>
       <c r="N32" t="n">
-        <v>2852.295579285459</v>
+        <v>2852.29557928546</v>
       </c>
       <c r="O32" t="n">
-        <v>3355.268050164796</v>
+        <v>3355.268050164797</v>
       </c>
       <c r="P32" t="n">
-        <v>3750.042416521974</v>
+        <v>3750.042416521975</v>
       </c>
       <c r="Q32" t="n">
-        <v>3998.328778277656</v>
+        <v>3998.328778277657</v>
       </c>
       <c r="R32" t="n">
-        <v>4057.345844834459</v>
+        <v>4057.34584483446</v>
       </c>
       <c r="S32" t="n">
         <v>3994.504809309627</v>
       </c>
       <c r="T32" t="n">
-        <v>3835.976694641922</v>
+        <v>3835.976694641923</v>
       </c>
       <c r="U32" t="n">
         <v>3629.895850863832</v>
@@ -6740,10 +6740,10 @@
         <v>3040.963574146294</v>
       </c>
       <c r="X32" t="n">
-        <v>2714.947448833288</v>
+        <v>2714.947448833287</v>
       </c>
       <c r="Y32" t="n">
-        <v>2372.25774980555</v>
+        <v>2372.257749805549</v>
       </c>
     </row>
     <row r="33">
@@ -6753,28 +6753,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>956.1786549456137</v>
+        <v>956.1786549456145</v>
       </c>
       <c r="C33" t="n">
-        <v>781.7256256644868</v>
+        <v>781.7256256644876</v>
       </c>
       <c r="D33" t="n">
-        <v>632.7912160032356</v>
+        <v>632.7912160032363</v>
       </c>
       <c r="E33" t="n">
-        <v>473.55376099778</v>
+        <v>473.5537609977807</v>
       </c>
       <c r="F33" t="n">
-        <v>327.0192030246651</v>
+        <v>327.0192030246657</v>
       </c>
       <c r="G33" t="n">
-        <v>190.6561028572837</v>
+        <v>190.6561028572838</v>
       </c>
       <c r="H33" t="n">
-        <v>100.1542084951512</v>
+        <v>100.1542084951513</v>
       </c>
       <c r="I33" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668919</v>
       </c>
       <c r="J33" t="n">
         <v>174.8241863873065</v>
@@ -6795,10 +6795,10 @@
         <v>2111.547193875144</v>
       </c>
       <c r="P33" t="n">
-        <v>2422.046785351247</v>
+        <v>2422.046785351246</v>
       </c>
       <c r="Q33" t="n">
-        <v>2579.688342997847</v>
+        <v>2579.688342997846</v>
       </c>
       <c r="R33" t="n">
         <v>2579.543989590362</v>
@@ -6807,13 +6807,13 @@
         <v>2450.106103083842</v>
       </c>
       <c r="T33" t="n">
-        <v>2257.463102761697</v>
+        <v>2257.463102761698</v>
       </c>
       <c r="U33" t="n">
         <v>2029.395255896113</v>
       </c>
       <c r="V33" t="n">
-        <v>1794.24314766437</v>
+        <v>1794.243147664371</v>
       </c>
       <c r="W33" t="n">
         <v>1540.005790936169</v>
@@ -6822,7 +6822,7 @@
         <v>1332.154290730636</v>
       </c>
       <c r="Y33" t="n">
-        <v>1124.393991965682</v>
+        <v>1124.393991965683</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>774.1010502697999</v>
+        <v>774.1010502698005</v>
       </c>
       <c r="C34" t="n">
-        <v>652.6145002899663</v>
+        <v>652.6145002899668</v>
       </c>
       <c r="D34" t="n">
-        <v>549.9474938257039</v>
+        <v>549.9474938257043</v>
       </c>
       <c r="E34" t="n">
-        <v>449.4840331913841</v>
+        <v>449.4840331913845</v>
       </c>
       <c r="F34" t="n">
-        <v>350.0437186415471</v>
+        <v>350.0437186415473</v>
       </c>
       <c r="G34" t="n">
-        <v>229.7905149643394</v>
+        <v>229.7905149643396</v>
       </c>
       <c r="H34" t="n">
-        <v>131.0229611302705</v>
+        <v>131.0229611302706</v>
       </c>
       <c r="I34" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668919</v>
       </c>
       <c r="J34" t="n">
-        <v>172.7749345960305</v>
+        <v>172.7749345960325</v>
       </c>
       <c r="K34" t="n">
-        <v>423.2675027973136</v>
+        <v>423.2675027973154</v>
       </c>
       <c r="L34" t="n">
-        <v>786.3326864982164</v>
+        <v>786.3326864982181</v>
       </c>
       <c r="M34" t="n">
-        <v>1176.995117350172</v>
+        <v>1176.995117350174</v>
       </c>
       <c r="N34" t="n">
-        <v>1564.908879308443</v>
+        <v>1564.908879308445</v>
       </c>
       <c r="O34" t="n">
-        <v>1910.743863481263</v>
+        <v>1910.743863481265</v>
       </c>
       <c r="P34" t="n">
-        <v>2189.856749167329</v>
+        <v>2189.856749167331</v>
       </c>
       <c r="Q34" t="n">
-        <v>2313.972430572251</v>
+        <v>2313.972430572252</v>
       </c>
       <c r="R34" t="n">
-        <v>2271.591606277852</v>
+        <v>2271.591606277853</v>
       </c>
       <c r="S34" t="n">
-        <v>2127.355355052752</v>
+        <v>2127.355355052753</v>
       </c>
       <c r="T34" t="n">
-        <v>1953.038372570351</v>
+        <v>1953.038372570352</v>
       </c>
       <c r="U34" t="n">
-        <v>1711.385138644068</v>
+        <v>1711.385138644069</v>
       </c>
       <c r="V34" t="n">
         <v>1504.150283386255</v>
       </c>
       <c r="W34" t="n">
-        <v>1262.182746297367</v>
+        <v>1262.182746297368</v>
       </c>
       <c r="X34" t="n">
-        <v>1081.642828347423</v>
+        <v>1081.642828347424</v>
       </c>
       <c r="Y34" t="n">
-        <v>908.2998821519662</v>
+        <v>908.2998821519669</v>
       </c>
     </row>
     <row r="35">
@@ -6911,7 +6911,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1711.141932470374</v>
+        <v>1711.141932470373</v>
       </c>
       <c r="C35" t="n">
         <v>1440.850850103805</v>
@@ -6920,67 +6920,67 @@
         <v>1181.256586070898</v>
       </c>
       <c r="E35" t="n">
-        <v>894.1397680464975</v>
+        <v>894.1397680464969</v>
       </c>
       <c r="F35" t="n">
-        <v>581.8252978307332</v>
+        <v>581.8252978307328</v>
       </c>
       <c r="G35" t="n">
-        <v>265.4242822495729</v>
+        <v>265.4242822495728</v>
       </c>
       <c r="H35" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I35" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J35" t="n">
         <v>255.3912473912088</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810551</v>
       </c>
       <c r="L35" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M35" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O35" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q35" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R35" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S35" t="n">
-        <v>3313.986587710109</v>
+        <v>3313.986587710108</v>
       </c>
       <c r="T35" t="n">
-        <v>3206.680274668175</v>
+        <v>3206.680274668174</v>
       </c>
       <c r="U35" t="n">
-        <v>3051.821232515855</v>
+        <v>3051.821232515854</v>
       </c>
       <c r="V35" t="n">
-        <v>2819.429779746128</v>
+        <v>2819.429779746127</v>
       </c>
       <c r="W35" t="n">
-        <v>2565.332559049857</v>
+        <v>2565.332559049856</v>
       </c>
       <c r="X35" t="n">
-        <v>2290.538235362621</v>
+        <v>2290.53823536262</v>
       </c>
       <c r="Y35" t="n">
-        <v>1999.070337960652</v>
+        <v>1999.070337960651</v>
       </c>
     </row>
     <row r="36">
@@ -7011,7 +7011,7 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I36" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J36" t="n">
         <v>160.1893859228007</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>402.2593958170925</v>
+        <v>402.2593958170922</v>
       </c>
       <c r="C37" t="n">
-        <v>331.994647463029</v>
+        <v>331.9946474630287</v>
       </c>
       <c r="D37" t="n">
-        <v>280.5494426245367</v>
+        <v>280.5494426245364</v>
       </c>
       <c r="E37" t="n">
-        <v>231.3077836159869</v>
+        <v>231.3077836159868</v>
       </c>
       <c r="F37" t="n">
-        <v>183.0892706919199</v>
+        <v>183.0892706919198</v>
       </c>
       <c r="G37" t="n">
-        <v>114.0578686404823</v>
+        <v>114.0578686404822</v>
       </c>
       <c r="H37" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I37" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J37" t="n">
         <v>111.6347488791189</v>
@@ -7117,28 +7117,28 @@
         <v>1927.294548088492</v>
       </c>
       <c r="R37" t="n">
-        <v>1837.46409084602</v>
+        <v>1884.661277114357</v>
       </c>
       <c r="S37" t="n">
-        <v>1744.44964124669</v>
+        <v>1692.975392941184</v>
       </c>
       <c r="T37" t="n">
-        <v>1569.880212084553</v>
+        <v>1471.20877751071</v>
       </c>
       <c r="U37" t="n">
-        <v>1280.777345210197</v>
+        <v>1182.105910636353</v>
       </c>
       <c r="V37" t="n">
         <v>1026.09285700431</v>
       </c>
       <c r="W37" t="n">
-        <v>736.6756869673495</v>
+        <v>835.3471215411926</v>
       </c>
       <c r="X37" t="n">
-        <v>607.3575706431756</v>
+        <v>706.0290052170186</v>
       </c>
       <c r="Y37" t="n">
-        <v>485.2364260734889</v>
+        <v>485.2364260734885</v>
       </c>
     </row>
     <row r="38">
@@ -7157,46 +7157,46 @@
         <v>1181.256586070898</v>
       </c>
       <c r="E38" t="n">
-        <v>894.139768046497</v>
+        <v>894.1397680464969</v>
       </c>
       <c r="F38" t="n">
-        <v>581.8252978307332</v>
+        <v>581.8252978307328</v>
       </c>
       <c r="G38" t="n">
-        <v>265.4242822495729</v>
+        <v>265.4242822495728</v>
       </c>
       <c r="H38" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I38" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L38" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M38" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N38" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O38" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P38" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q38" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R38" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S38" t="n">
         <v>3313.986587710109</v>
@@ -7211,7 +7211,7 @@
         <v>2819.429779746127</v>
       </c>
       <c r="W38" t="n">
-        <v>2565.332559049856</v>
+        <v>2565.332559049857</v>
       </c>
       <c r="X38" t="n">
         <v>2290.53823536262</v>
@@ -7248,31 +7248,31 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I39" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J39" t="n">
-        <v>160.1893859228011</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K39" t="n">
-        <v>398.4535849031482</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L39" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M39" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N39" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O39" t="n">
         <v>2096.912393410638</v>
       </c>
       <c r="P39" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q39" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R39" t="n">
         <v>2564.909189125856</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>402.2593958170925</v>
+        <v>740.9069705127574</v>
       </c>
       <c r="C40" t="n">
-        <v>331.9946474630289</v>
+        <v>628.008951184559</v>
       </c>
       <c r="D40" t="n">
-        <v>280.5494426245366</v>
+        <v>477.8923117722233</v>
       </c>
       <c r="E40" t="n">
-        <v>231.3077836159869</v>
+        <v>428.6506527636736</v>
       </c>
       <c r="F40" t="n">
-        <v>183.0892706919199</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G40" t="n">
-        <v>114.0578686404822</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H40" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I40" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J40" t="n">
         <v>111.6347488791189</v>
@@ -7357,25 +7357,25 @@
         <v>1927.294548088492</v>
       </c>
       <c r="S40" t="n">
-        <v>1791.646827515027</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T40" t="n">
-        <v>1569.880212084553</v>
+        <v>1612.513483058688</v>
       </c>
       <c r="U40" t="n">
-        <v>1280.777345210197</v>
+        <v>1422.082050758175</v>
       </c>
       <c r="V40" t="n">
-        <v>1026.09285700431</v>
+        <v>1266.068997126132</v>
       </c>
       <c r="W40" t="n">
-        <v>736.6756869673495</v>
+        <v>1075.323261663014</v>
       </c>
       <c r="X40" t="n">
-        <v>607.3575706431756</v>
+        <v>946.0051453388405</v>
       </c>
       <c r="Y40" t="n">
-        <v>485.2364260734888</v>
+        <v>823.8840007691538</v>
       </c>
     </row>
     <row r="41">
@@ -7391,28 +7391,28 @@
         <v>1440.850850103805</v>
       </c>
       <c r="D41" t="n">
-        <v>1181.256586070898</v>
+        <v>1181.256586070897</v>
       </c>
       <c r="E41" t="n">
-        <v>894.1397680464968</v>
+        <v>894.139768046497</v>
       </c>
       <c r="F41" t="n">
-        <v>581.8252978307327</v>
+        <v>581.8252978307329</v>
       </c>
       <c r="G41" t="n">
-        <v>265.4242822495727</v>
+        <v>265.4242822495728</v>
       </c>
       <c r="H41" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I41" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810551</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L41" t="n">
         <v>1040.244834329464</v>
@@ -7421,16 +7421,16 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N41" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O41" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P41" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q41" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R41" t="n">
         <v>3325.60582160917</v>
@@ -7442,19 +7442,19 @@
         <v>3206.680274668174</v>
       </c>
       <c r="U41" t="n">
-        <v>3051.821232515854</v>
+        <v>3051.821232515853</v>
       </c>
       <c r="V41" t="n">
-        <v>2819.429779746127</v>
+        <v>2819.429779746126</v>
       </c>
       <c r="W41" t="n">
-        <v>2565.332559049856</v>
+        <v>2565.332559049855</v>
       </c>
       <c r="X41" t="n">
         <v>2290.53823536262</v>
       </c>
       <c r="Y41" t="n">
-        <v>1999.070337960652</v>
+        <v>1999.070337960651</v>
       </c>
     </row>
     <row r="42">
@@ -7482,34 +7482,34 @@
         <v>176.021302392778</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I42" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J42" t="n">
-        <v>160.1893859228011</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K42" t="n">
-        <v>398.4535849031482</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L42" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M42" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N42" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O42" t="n">
         <v>2096.912393410638</v>
       </c>
       <c r="P42" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q42" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R42" t="n">
         <v>2564.909189125856</v>
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>444.8926667912272</v>
+        <v>795.5993767202772</v>
       </c>
       <c r="C43" t="n">
-        <v>374.6279184371637</v>
+        <v>725.3346283662137</v>
       </c>
       <c r="D43" t="n">
-        <v>323.1827135986715</v>
+        <v>575.2179889538779</v>
       </c>
       <c r="E43" t="n">
-        <v>273.9410545901218</v>
+        <v>427.3048953714849</v>
       </c>
       <c r="F43" t="n">
-        <v>225.7225416660549</v>
+        <v>379.0863824474179</v>
       </c>
       <c r="G43" t="n">
-        <v>114.0578686404821</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H43" t="n">
-        <v>66.51211643218339</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I43" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J43" t="n">
         <v>111.6347488791189</v>
@@ -7603,16 +7603,16 @@
         <v>1520.753485332018</v>
       </c>
       <c r="V43" t="n">
-        <v>1266.068997126132</v>
+        <v>1364.740431699975</v>
       </c>
       <c r="W43" t="n">
-        <v>976.6518270891709</v>
+        <v>1173.994696236858</v>
       </c>
       <c r="X43" t="n">
-        <v>748.6622761911535</v>
+        <v>1044.676579912684</v>
       </c>
       <c r="Y43" t="n">
-        <v>527.8696970476234</v>
+        <v>878.5764069766734</v>
       </c>
     </row>
     <row r="44">
@@ -7622,19 +7622,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1711.141932470373</v>
+        <v>1711.141932470372</v>
       </c>
       <c r="C44" t="n">
-        <v>1440.850850103805</v>
+        <v>1440.850850103804</v>
       </c>
       <c r="D44" t="n">
         <v>1181.256586070897</v>
       </c>
       <c r="E44" t="n">
-        <v>894.1397680464966</v>
+        <v>894.139768046497</v>
       </c>
       <c r="F44" t="n">
-        <v>581.8252978307327</v>
+        <v>581.8252978307329</v>
       </c>
       <c r="G44" t="n">
         <v>265.4242822495727</v>
@@ -7649,16 +7649,16 @@
         <v>255.3912473912087</v>
       </c>
       <c r="K44" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M44" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O44" t="n">
         <v>2623.528026939507</v>
@@ -7676,22 +7676,22 @@
         <v>3313.986587710108</v>
       </c>
       <c r="T44" t="n">
-        <v>3206.680274668174</v>
+        <v>3206.680274668173</v>
       </c>
       <c r="U44" t="n">
-        <v>3051.821232515854</v>
+        <v>3051.821232515853</v>
       </c>
       <c r="V44" t="n">
         <v>2819.429779746126</v>
       </c>
       <c r="W44" t="n">
-        <v>2565.332559049856</v>
+        <v>2565.332559049855</v>
       </c>
       <c r="X44" t="n">
         <v>2290.538235362619</v>
       </c>
       <c r="Y44" t="n">
-        <v>1999.070337960651</v>
+        <v>1999.07033796065</v>
       </c>
     </row>
     <row r="45">
@@ -7701,19 +7701,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811072</v>
       </c>
       <c r="C45" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999803</v>
       </c>
       <c r="D45" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387291</v>
       </c>
       <c r="E45" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332735</v>
       </c>
       <c r="F45" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601586</v>
       </c>
       <c r="G45" t="n">
         <v>176.021302392778</v>
@@ -7725,10 +7725,10 @@
         <v>66.51211643218339</v>
       </c>
       <c r="J45" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K45" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L45" t="n">
         <v>765.151745215813</v>
@@ -7746,31 +7746,31 @@
         <v>2407.41198488674</v>
       </c>
       <c r="Q45" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R45" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S45" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T45" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U45" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V45" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W45" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X45" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y45" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501175</v>
       </c>
     </row>
     <row r="46">
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>402.259395817092</v>
+        <v>642.2355359389142</v>
       </c>
       <c r="C46" t="n">
-        <v>331.9946474630285</v>
+        <v>473.2993530110073</v>
       </c>
       <c r="D46" t="n">
-        <v>280.5494426245363</v>
+        <v>421.854148172515</v>
       </c>
       <c r="E46" t="n">
-        <v>231.3077836159866</v>
+        <v>372.6124891639653</v>
       </c>
       <c r="F46" t="n">
-        <v>183.0892706919197</v>
+        <v>324.3939762398984</v>
       </c>
       <c r="G46" t="n">
-        <v>114.0578686404821</v>
+        <v>255.3625741884608</v>
       </c>
       <c r="H46" t="n">
-        <v>66.51211643218339</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I46" t="n">
         <v>66.51211643218339</v>
@@ -7831,25 +7831,25 @@
         <v>1927.294548088492</v>
       </c>
       <c r="S46" t="n">
-        <v>1735.608663915319</v>
+        <v>1834.280098489162</v>
       </c>
       <c r="T46" t="n">
-        <v>1513.842048484845</v>
+        <v>1711.184917632532</v>
       </c>
       <c r="U46" t="n">
-        <v>1280.777345210196</v>
+        <v>1520.753485332018</v>
       </c>
       <c r="V46" t="n">
-        <v>1026.092857004309</v>
+        <v>1266.068997126132</v>
       </c>
       <c r="W46" t="n">
-        <v>736.6756869673487</v>
+        <v>976.6518270891709</v>
       </c>
       <c r="X46" t="n">
-        <v>607.3575706431749</v>
+        <v>847.333710764997</v>
       </c>
       <c r="Y46" t="n">
-        <v>485.2364260734882</v>
+        <v>725.2125661953104</v>
       </c>
     </row>
   </sheetData>
@@ -8450,28 +8450,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>157.2353108430629</v>
+        <v>157.2353108430628</v>
       </c>
       <c r="K8" t="n">
-        <v>184.4039433729005</v>
+        <v>184.4039433729002</v>
       </c>
       <c r="L8" t="n">
-        <v>191.4948909389601</v>
+        <v>191.4948909389598</v>
       </c>
       <c r="M8" t="n">
-        <v>181.0856325333063</v>
+        <v>181.085632533306</v>
       </c>
       <c r="N8" t="n">
-        <v>179.3553748830237</v>
+        <v>179.3553748830234</v>
       </c>
       <c r="O8" t="n">
-        <v>182.8301554383987</v>
+        <v>182.8301554383984</v>
       </c>
       <c r="P8" t="n">
-        <v>190.8908035586582</v>
+        <v>190.8908035586579</v>
       </c>
       <c r="Q8" t="n">
-        <v>192.0103836266122</v>
+        <v>192.010383626612</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8529,28 +8529,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>112.6562001875973</v>
+        <v>112.6562001875972</v>
       </c>
       <c r="K9" t="n">
-        <v>113.6031223372531</v>
+        <v>113.603122337253</v>
       </c>
       <c r="L9" t="n">
-        <v>105.9629718672271</v>
+        <v>105.9629718672269</v>
       </c>
       <c r="M9" t="n">
-        <v>104.101398125359</v>
+        <v>104.1013981253587</v>
       </c>
       <c r="N9" t="n">
-        <v>92.30246558677624</v>
+        <v>92.30246558677598</v>
       </c>
       <c r="O9" t="n">
-        <v>106.8829608359733</v>
+        <v>106.8829608359731</v>
       </c>
       <c r="P9" t="n">
-        <v>105.3113487798322</v>
+        <v>105.311348779832</v>
       </c>
       <c r="Q9" t="n">
-        <v>120.8212784615456</v>
+        <v>120.8212784615455</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8614,19 +8614,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L10" t="n">
-        <v>116.1755252564656</v>
+        <v>116.1755252564655</v>
       </c>
       <c r="M10" t="n">
-        <v>119.1996074085226</v>
+        <v>119.1996074085225</v>
       </c>
       <c r="N10" t="n">
-        <v>108.4284123140776</v>
+        <v>108.4284123140775</v>
       </c>
       <c r="O10" t="n">
-        <v>120.6694600530923</v>
+        <v>120.6694600530922</v>
       </c>
       <c r="P10" t="n">
-        <v>122.5080856662703</v>
+        <v>122.5080856662702</v>
       </c>
       <c r="Q10" t="n">
         <v>65.34295837775146</v>
@@ -8790,7 +8790,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9027,7 +9027,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9185,7 +9185,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>1.449507180950604e-12</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9264,7 +9264,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9501,7 +9501,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -9644,7 +9644,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>339.814425378434</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -9656,7 +9656,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>170.7178102063608</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -9711,7 +9711,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.147526518252562e-12</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -9738,7 +9738,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9878,7 +9878,7 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>277.2206841544152</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -9887,16 +9887,16 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>174.4519134245573</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10130,10 +10130,10 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>40.02214132148785</v>
+        <v>105.7385611944713</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10212,7 +10212,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10358,7 +10358,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
-        <v>274.835176366543</v>
+        <v>274.8351763665452</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
@@ -10449,7 +10449,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10592,7 +10592,7 @@
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>7.958078640513122e-13</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -10604,7 +10604,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>9.663381206337363e-13</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -10923,7 +10923,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>5.329070518200751e-13</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11160,7 +11160,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>309.0654167744851</v>
+        <v>355.8136950763541</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23315,7 +23315,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>300.8321118830085</v>
       </c>
       <c r="W11" t="n">
         <v>322.3208221302866</v>
@@ -23324,7 +23324,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>359.3177920689271</v>
+        <v>11.7374018840491</v>
       </c>
     </row>
     <row r="12">
@@ -23419,13 +23419,13 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>105.9495920584827</v>
+        <v>121.6953264310859</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>119.5138160594427</v>
       </c>
       <c r="F13" t="n">
-        <v>118.5009014358048</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>62.01200608292086</v>
+        <v>38.12835504973798</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23479,10 +23479,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>198.7895088019107</v>
       </c>
       <c r="Y13" t="n">
-        <v>191.6645067649683</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23492,25 +23492,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>355.8136950763541</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>327.7628950335565</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>379.955899154585</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>267.687617800194</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23543,22 +23543,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.2676152010494</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>176.9978235524937</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>187.3236047275105</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>232.9124777732541</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>60.28070691643219</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>192.6288026890427</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23713,7 +23713,7 @@
         <v>225.2174967367015</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>252.9095096054753</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23747,7 +23747,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>220.7124811816014</v>
+        <v>220.7124811816015</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23789,7 +23789,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>112.3396371318003</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23798,7 +23798,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>112.3396371318002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23966,7 +23966,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>37.21630084065188</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -24032,10 +24032,10 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>295.8358174727499</v>
+        <v>20.70946286306895</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>312.3426554503346</v>
       </c>
     </row>
     <row r="21">
@@ -25871,7 +25871,7 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>1.591615728102624e-12</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>979449.3244643509</v>
+        <v>979449.3244643507</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>979449.3244643508</v>
+        <v>979449.3244643509</v>
       </c>
     </row>
     <row r="7">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1130959.700920457</v>
+        <v>1130959.700920458</v>
       </c>
     </row>
     <row r="13">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>348192.4439547412</v>
+        <v>348192.4439547414</v>
       </c>
       <c r="C2" t="n">
         <v>348192.4439547413</v>
@@ -26320,13 +26320,13 @@
         <v>348201.9346675275</v>
       </c>
       <c r="E2" t="n">
-        <v>310054.5003846145</v>
+        <v>310054.5003846146</v>
       </c>
       <c r="F2" t="n">
-        <v>310054.5003846144</v>
+        <v>310054.5003846146</v>
       </c>
       <c r="G2" t="n">
-        <v>337675.5990297777</v>
+        <v>337675.5990297786</v>
       </c>
       <c r="H2" t="n">
         <v>337675.5990297784</v>
@@ -26335,25 +26335,25 @@
         <v>348942.7521923202</v>
       </c>
       <c r="J2" t="n">
-        <v>348942.7521923205</v>
+        <v>348942.7521923204</v>
       </c>
       <c r="K2" t="n">
+        <v>348942.7521923204</v>
+      </c>
+      <c r="L2" t="n">
         <v>348942.7521923202</v>
-      </c>
-      <c r="L2" t="n">
-        <v>348942.7521923204</v>
       </c>
       <c r="M2" t="n">
         <v>348942.7521923202</v>
       </c>
       <c r="N2" t="n">
+        <v>348942.7521923207</v>
+      </c>
+      <c r="O2" t="n">
+        <v>348942.7521923207</v>
+      </c>
+      <c r="P2" t="n">
         <v>348942.7521923208</v>
-      </c>
-      <c r="O2" t="n">
-        <v>348942.7521923203</v>
-      </c>
-      <c r="P2" t="n">
-        <v>348942.7521923207</v>
       </c>
     </row>
     <row r="3">
@@ -26369,7 +26369,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>59764.55367552331</v>
+        <v>59764.5536755237</v>
       </c>
       <c r="E3" t="n">
         <v>1089238.972163631</v>
@@ -26378,25 +26378,25 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>37580.10929487411</v>
+        <v>37580.10929487406</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>22821.4678298336</v>
+        <v>22821.46782983352</v>
       </c>
       <c r="J3" t="n">
-        <v>25409.43302179697</v>
+        <v>25409.43302179698</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>37580.10929487412</v>
+        <v>37580.10929487401</v>
       </c>
       <c r="M3" t="n">
-        <v>202168.0999927241</v>
+        <v>202168.0999927242</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26421,43 +26421,43 @@
         <v>457775.3608255375</v>
       </c>
       <c r="D4" t="n">
-        <v>435086.1724434261</v>
+        <v>435086.172443426</v>
       </c>
       <c r="E4" t="n">
-        <v>40634.10590866212</v>
+        <v>40634.10590866208</v>
       </c>
       <c r="F4" t="n">
-        <v>40634.10590866211</v>
+        <v>40634.10590866208</v>
       </c>
       <c r="G4" t="n">
-        <v>77662.26627010443</v>
+        <v>77662.2662701043</v>
       </c>
       <c r="H4" t="n">
-        <v>77662.26627010437</v>
+        <v>77662.26627010429</v>
       </c>
       <c r="I4" t="n">
-        <v>91903.68494905933</v>
+        <v>91903.68494905929</v>
       </c>
       <c r="J4" t="n">
-        <v>91012.35309462833</v>
+        <v>91012.35309462831</v>
       </c>
       <c r="K4" t="n">
-        <v>91012.35309462839</v>
+        <v>91012.35309462837</v>
       </c>
       <c r="L4" t="n">
-        <v>91012.35309462831</v>
+        <v>91012.35309462837</v>
       </c>
       <c r="M4" t="n">
+        <v>92793.8428831941</v>
+      </c>
+      <c r="N4" t="n">
+        <v>92793.84288319405</v>
+      </c>
+      <c r="O4" t="n">
         <v>92793.84288319407</v>
       </c>
-      <c r="N4" t="n">
+      <c r="P4" t="n">
         <v>92793.84288319404</v>
-      </c>
-      <c r="O4" t="n">
-        <v>92793.84288319408</v>
-      </c>
-      <c r="P4" t="n">
-        <v>92793.84288319405</v>
       </c>
     </row>
     <row r="5">
@@ -26473,7 +26473,7 @@
         <v>33627.6</v>
       </c>
       <c r="D5" t="n">
-        <v>35148.90543186637</v>
+        <v>35148.90543186638</v>
       </c>
       <c r="E5" t="n">
         <v>76569.49036482643</v>
@@ -26485,7 +26485,7 @@
         <v>80518.64312521491</v>
       </c>
       <c r="H5" t="n">
-        <v>80518.64312521489</v>
+        <v>80518.64312521488</v>
       </c>
       <c r="I5" t="n">
         <v>85736.5283018421</v>
@@ -26494,7 +26494,7 @@
         <v>89377.94167480612</v>
       </c>
       <c r="K5" t="n">
-        <v>89377.94167480612</v>
+        <v>89377.94167480615</v>
       </c>
       <c r="L5" t="n">
         <v>89377.94167480613</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-143210.5168707962</v>
+        <v>-143214.9304486642</v>
       </c>
       <c r="C6" t="n">
-        <v>-143210.5168707962</v>
+        <v>-143214.9304486642</v>
       </c>
       <c r="D6" t="n">
-        <v>-181797.6968832883</v>
+        <v>-181802.0546334344</v>
       </c>
       <c r="E6" t="n">
-        <v>-896388.0680525053</v>
+        <v>-896616.8224749035</v>
       </c>
       <c r="F6" t="n">
-        <v>192850.9041111258</v>
+        <v>192622.1496887278</v>
       </c>
       <c r="G6" t="n">
-        <v>141914.5803395843</v>
+        <v>141848.302968041</v>
       </c>
       <c r="H6" t="n">
-        <v>179494.6896344592</v>
+        <v>179428.412262915</v>
       </c>
       <c r="I6" t="n">
-        <v>148481.0711115852</v>
+        <v>148481.0711115854</v>
       </c>
       <c r="J6" t="n">
-        <v>143143.0244010891</v>
+        <v>143143.024401089</v>
       </c>
       <c r="K6" t="n">
-        <v>168552.4574228858</v>
+        <v>168552.4574228859</v>
       </c>
       <c r="L6" t="n">
-        <v>130972.3481280118</v>
+        <v>130972.3481280117</v>
       </c>
       <c r="M6" t="n">
-        <v>-28537.7879898478</v>
+        <v>-28537.78798984789</v>
       </c>
       <c r="N6" t="n">
-        <v>173630.3120028769</v>
+        <v>173630.3120028768</v>
       </c>
       <c r="O6" t="n">
-        <v>173630.3120028764</v>
+        <v>173630.3120028768</v>
       </c>
       <c r="P6" t="n">
-        <v>173630.3120028768</v>
+        <v>173630.312002877</v>
       </c>
     </row>
   </sheetData>
@@ -26692,40 +26692,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>26.92014658712648</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="F2" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="G2" t="n">
-        <v>73.89528320571911</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="H2" t="n">
-        <v>73.89528320571911</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="I2" t="n">
-        <v>73.89528320571911</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="J2" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="K2" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="M2" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="N2" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="O2" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="P2" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810499</v>
       </c>
     </row>
     <row r="3">
@@ -26741,7 +26741,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>69.78465283790703</v>
+        <v>69.78465283790749</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26796,22 +26796,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="G4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.401455402293</v>
       </c>
       <c r="H4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="I4" t="n">
-        <v>917.2219352810296</v>
+        <v>917.2219352810298</v>
       </c>
       <c r="J4" t="n">
-        <v>1014.336461208614</v>
+        <v>1014.336461208615</v>
       </c>
       <c r="K4" t="n">
         <v>1014.336461208615</v>
@@ -26820,13 +26820,13 @@
         <v>1014.336461208615</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="N4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="O4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="P4" t="n">
         <v>831.4014554022924</v>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>26.92014658712648</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>46.97513661859264</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26935,10 +26935,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="M2" t="n">
-        <v>50.70958360951235</v>
+        <v>50.70958360951246</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26963,7 +26963,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>69.78465283790703</v>
+        <v>69.78465283790749</v>
       </c>
       <c r="E3" t="n">
         <v>1019.992047755391</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27030,10 +27030,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>85.82047987873693</v>
+        <v>85.82047987873727</v>
       </c>
       <c r="J4" t="n">
-        <v>97.11452592758485</v>
+        <v>97.11452592758474</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>648.4664495959706</v>
+        <v>648.4664495959705</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>26.92014658712648</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859264</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27871,7 +27871,7 @@
         <v>336.6017083434004</v>
       </c>
       <c r="I8" t="n">
-        <v>199.6603204104726</v>
+        <v>199.6603204104725</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,10 +27898,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>132.2465643780173</v>
+        <v>132.2465643780172</v>
       </c>
       <c r="S8" t="n">
-        <v>202.6272343036572</v>
+        <v>202.6272343036571</v>
       </c>
       <c r="T8" t="n">
         <v>221.8677799448432</v>
@@ -27950,7 +27950,7 @@
         <v>110.7857668256562</v>
       </c>
       <c r="I9" t="n">
-        <v>84.22861846672102</v>
+        <v>84.22861846672099</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,7 +27977,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>90.8382912698751</v>
+        <v>90.83829126987503</v>
       </c>
       <c r="S9" t="n">
         <v>168.895076719229</v>
@@ -28029,13 +28029,13 @@
         <v>161.1083300406285</v>
       </c>
       <c r="I10" t="n">
-        <v>151.6660875241797</v>
+        <v>151.6660875241796</v>
       </c>
       <c r="J10" t="n">
-        <v>84.46220888519076</v>
+        <v>84.46220888519071</v>
       </c>
       <c r="K10" t="n">
-        <v>7.649035050990204</v>
+        <v>7.649035050990108</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28053,13 +28053,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>75.62456067317042</v>
+        <v>75.62456067317035</v>
       </c>
       <c r="R10" t="n">
         <v>171.6351144437877</v>
       </c>
       <c r="S10" t="n">
-        <v>221.8235295207384</v>
+        <v>221.8235295207383</v>
       </c>
       <c r="T10" t="n">
         <v>227.4079043982189</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>26.92014658712648</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="C11" t="n">
-        <v>26.92014658712648</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="D11" t="n">
-        <v>26.92014658712648</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="E11" t="n">
-        <v>26.92014658712648</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="F11" t="n">
-        <v>26.92014658712648</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="G11" t="n">
-        <v>26.92014658712648</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="H11" t="n">
-        <v>26.92014658712648</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="I11" t="n">
-        <v>26.92014658712648</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>26.92014658712648</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="T11" t="n">
-        <v>26.92014658712648</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="U11" t="n">
-        <v>26.92014658712648</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="V11" t="n">
-        <v>26.92014658712648</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="W11" t="n">
-        <v>26.92014658712648</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="X11" t="n">
-        <v>26.92014658712648</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="Y11" t="n">
-        <v>26.92014658712648</v>
+        <v>26.92014658712645</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>26.92014658712648</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="C13" t="n">
-        <v>26.92014658712648</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="D13" t="n">
-        <v>26.92014658712648</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="E13" t="n">
-        <v>26.92014658712648</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="F13" t="n">
-        <v>26.92014658712648</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="G13" t="n">
-        <v>26.92014658712648</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="H13" t="n">
-        <v>26.92014658712648</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="I13" t="n">
-        <v>26.92014658712648</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="J13" t="n">
-        <v>26.92014658712648</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="K13" t="n">
-        <v>26.92014658712648</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="L13" t="n">
-        <v>26.92014658712648</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="M13" t="n">
-        <v>26.92014658712648</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="N13" t="n">
-        <v>26.92014658712648</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="O13" t="n">
-        <v>26.92014658712648</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="P13" t="n">
-        <v>26.92014658712648</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="Q13" t="n">
-        <v>26.92014658712648</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="R13" t="n">
-        <v>26.92014658712648</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="S13" t="n">
-        <v>26.92014658712648</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="T13" t="n">
-        <v>26.92014658712648</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="U13" t="n">
-        <v>26.92014658712648</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="V13" t="n">
-        <v>26.92014658712648</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="W13" t="n">
-        <v>26.92014658712648</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="X13" t="n">
-        <v>26.92014658712648</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="Y13" t="n">
-        <v>26.92014658712648</v>
+        <v>26.92014658712645</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="C14" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="D14" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="E14" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="F14" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="G14" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="H14" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="I14" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="T14" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="U14" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="V14" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="W14" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="X14" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="Y14" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712645</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="C16" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="D16" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="E16" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="F16" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="G16" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="H16" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="I16" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="J16" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="K16" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="L16" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="M16" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="N16" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="O16" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="P16" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="Q16" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="R16" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="S16" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="T16" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="U16" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="V16" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="W16" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="X16" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="Y16" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712645</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>73.89528320571911</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="C17" t="n">
-        <v>73.89528320571911</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="D17" t="n">
-        <v>73.89528320571911</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="E17" t="n">
-        <v>73.89528320571911</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="F17" t="n">
-        <v>73.89528320571911</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="G17" t="n">
-        <v>73.89528320571911</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="H17" t="n">
-        <v>73.89528320571911</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>73.89528320571911</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="T17" t="n">
-        <v>73.89528320571911</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="U17" t="n">
-        <v>73.89528320571911</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="V17" t="n">
-        <v>73.89528320571911</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="W17" t="n">
-        <v>73.89528320571911</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="X17" t="n">
-        <v>73.89528320571911</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="Y17" t="n">
-        <v>73.89528320571911</v>
+        <v>73.89528320571902</v>
       </c>
     </row>
     <row r="18">
@@ -28719,28 +28719,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>73.89528320571911</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="C19" t="n">
-        <v>73.89528320571911</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="D19" t="n">
-        <v>73.89528320571911</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="E19" t="n">
-        <v>73.89528320571911</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="F19" t="n">
-        <v>11.49558901075494</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="G19" t="n">
-        <v>73.89528320571911</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="H19" t="n">
-        <v>73.89528320571911</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="I19" t="n">
-        <v>73.89528320571911</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -28767,28 +28767,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>73.89528320571911</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="S19" t="n">
-        <v>73.89528320571911</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="T19" t="n">
-        <v>73.89528320571911</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="U19" t="n">
-        <v>73.89528320571911</v>
+        <v>11.49558901075596</v>
       </c>
       <c r="V19" t="n">
-        <v>73.89528320571911</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="W19" t="n">
-        <v>73.89528320571911</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="X19" t="n">
-        <v>73.89528320571911</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="Y19" t="n">
-        <v>73.89528320571911</v>
+        <v>73.89528320571902</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>73.89528320571911</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="C20" t="n">
-        <v>73.89528320571911</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="D20" t="n">
-        <v>73.89528320571911</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="E20" t="n">
-        <v>73.89528320571911</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="F20" t="n">
-        <v>73.89528320571911</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="G20" t="n">
-        <v>73.89528320571911</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="H20" t="n">
-        <v>73.89528320571911</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>73.89528320571911</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="T20" t="n">
-        <v>73.89528320571911</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="U20" t="n">
-        <v>73.89528320571911</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="V20" t="n">
-        <v>73.89528320571911</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="W20" t="n">
-        <v>73.89528320571911</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="X20" t="n">
-        <v>73.89528320571911</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="Y20" t="n">
-        <v>73.89528320571911</v>
+        <v>73.89528320571902</v>
       </c>
     </row>
     <row r="21">
@@ -28956,28 +28956,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>73.89528320571911</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="C22" t="n">
-        <v>73.89528320571911</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="D22" t="n">
-        <v>73.89528320571911</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="E22" t="n">
-        <v>73.89528320571911</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="F22" t="n">
-        <v>11.49558901075491</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="G22" t="n">
-        <v>73.89528320571911</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="H22" t="n">
-        <v>73.89528320571911</v>
+        <v>11.49558901075585</v>
       </c>
       <c r="I22" t="n">
-        <v>73.89528320571911</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -29004,28 +29004,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>73.89528320571911</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="S22" t="n">
-        <v>73.89528320571911</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="T22" t="n">
-        <v>73.89528320571911</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="U22" t="n">
-        <v>73.89528320571911</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="V22" t="n">
-        <v>73.89528320571911</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="W22" t="n">
-        <v>73.89528320571911</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="X22" t="n">
-        <v>73.89528320571911</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="Y22" t="n">
-        <v>73.89528320571911</v>
+        <v>73.89528320571902</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>73.89528320571911</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="C23" t="n">
-        <v>73.89528320571911</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="D23" t="n">
-        <v>73.89528320571911</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="E23" t="n">
-        <v>73.89528320571911</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="F23" t="n">
-        <v>73.89528320571911</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="G23" t="n">
-        <v>73.89528320571911</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="H23" t="n">
-        <v>73.89528320571911</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="I23" t="n">
         <v>41.57692977292598</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>73.89528320571911</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="T23" t="n">
-        <v>73.89528320571911</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="U23" t="n">
-        <v>73.89528320571911</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="V23" t="n">
-        <v>73.89528320571911</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="W23" t="n">
-        <v>73.89528320571911</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="X23" t="n">
-        <v>73.89528320571911</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="Y23" t="n">
-        <v>73.89528320571911</v>
+        <v>73.89528320571902</v>
       </c>
     </row>
     <row r="24">
@@ -29193,28 +29193,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>73.89528320571911</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="C25" t="n">
-        <v>73.89528320571911</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="D25" t="n">
-        <v>73.89528320571911</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="E25" t="n">
-        <v>73.89528320571911</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="F25" t="n">
-        <v>73.89528320571911</v>
+        <v>11.49558901075639</v>
       </c>
       <c r="G25" t="n">
-        <v>73.89528320571911</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="H25" t="n">
-        <v>73.89528320571911</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="I25" t="n">
-        <v>73.89528320571911</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -29241,28 +29241,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>73.89528320571911</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="S25" t="n">
-        <v>73.89528320571911</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="T25" t="n">
-        <v>11.49558901075477</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="U25" t="n">
-        <v>73.89528320571911</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="V25" t="n">
-        <v>73.89528320571911</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="W25" t="n">
-        <v>73.89528320571911</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="X25" t="n">
-        <v>73.89528320571911</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="Y25" t="n">
-        <v>73.89528320571911</v>
+        <v>73.89528320571902</v>
       </c>
     </row>
     <row r="26">
@@ -29272,25 +29272,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C26" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D26" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E26" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F26" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G26" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H26" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I26" t="n">
         <v>41.57692977292598</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T26" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U26" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V26" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W26" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X26" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y26" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="J28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="K28" t="n">
-        <v>46.9751366185921</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="L28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="N28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="O28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="P28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Q28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="R28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="S28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="29">
@@ -29509,25 +29509,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C29" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D29" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E29" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F29" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G29" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H29" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I29" t="n">
         <v>41.57692977292598</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T29" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U29" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V29" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W29" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X29" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y29" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="J31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="K31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="L31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="M31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="N31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="O31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="P31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Q31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="R31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="S31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="32">
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="C32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="D32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="E32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="F32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="G32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="H32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="T32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="U32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="V32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="W32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="X32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="Y32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859251</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="C34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="D34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="E34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="F34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="G34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="H34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="I34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="J34" t="n">
-        <v>46.97513661859172</v>
+        <v>46.97513661859371</v>
       </c>
       <c r="K34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="L34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="M34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="N34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="O34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="P34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="Q34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="R34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="S34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="T34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="U34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="V34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="W34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="X34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="Y34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859251</v>
       </c>
     </row>
     <row r="35">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="C35" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="D35" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="E35" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="F35" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="G35" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="H35" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292598</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="T35" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="U35" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="V35" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="W35" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="X35" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="Y35" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810498</v>
       </c>
     </row>
     <row r="36">
@@ -30141,25 +30141,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="C37" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="D37" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="E37" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="F37" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="G37" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="H37" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="I37" t="n">
         <v>96.35242040983812</v>
@@ -30189,28 +30189,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>46.72521440565367</v>
       </c>
       <c r="S37" t="n">
-        <v>97.68472022810494</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>46.72521440565393</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="X37" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.68472022810494</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="C38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="D38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="E38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="F38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="G38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="H38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="I38" t="n">
         <v>41.57692977292598</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="T38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="U38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="V38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="W38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="X38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="Y38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810498</v>
       </c>
     </row>
     <row r="39">
@@ -30378,25 +30378,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="C40" t="n">
-        <v>97.68472022810495</v>
+        <v>55.47778196371141</v>
       </c>
       <c r="D40" t="n">
-        <v>97.68472022810495</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="F40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="G40" t="n">
-        <v>97.68472022810495</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>97.68472022810495</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>96.35242040983812</v>
@@ -30429,25 +30429,25 @@
         <v>88.93215267004734</v>
       </c>
       <c r="S40" t="n">
-        <v>55.47778196371155</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="X40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810498</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="C41" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="D41" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="E41" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="F41" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="G41" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="H41" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="I41" t="n">
         <v>41.57692977292598</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="T41" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="U41" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="V41" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="W41" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="X41" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="Y41" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810499</v>
       </c>
     </row>
     <row r="42">
@@ -30615,28 +30615,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="C43" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="D43" t="n">
-        <v>97.68472022810502</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>97.68472022810502</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="G43" t="n">
-        <v>55.47778196371121</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="H43" t="n">
-        <v>97.68472022810502</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -30666,25 +30666,25 @@
         <v>88.93215267004734</v>
       </c>
       <c r="S43" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="T43" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="U43" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>54.1454821454443</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="C44" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="D44" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="E44" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="F44" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="G44" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="H44" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="I44" t="n">
         <v>41.57692977292598</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="T44" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="U44" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="V44" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="W44" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="X44" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="Y44" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810499</v>
       </c>
     </row>
     <row r="45">
@@ -30852,28 +30852,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="C46" t="n">
-        <v>97.68472022810502</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="E46" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="F46" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="G46" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="H46" t="n">
-        <v>97.68472022810502</v>
+        <v>54.14548214544432</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -30903,13 +30903,13 @@
         <v>88.93215267004734</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="U46" t="n">
-        <v>55.47778196371084</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -30918,10 +30918,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810499</v>
       </c>
     </row>
   </sheetData>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2805413179413346</v>
+        <v>0.2805413179413364</v>
       </c>
       <c r="H8" t="n">
-        <v>2.873093772366694</v>
+        <v>2.873093772366712</v>
       </c>
       <c r="I8" t="n">
-        <v>10.81556915993331</v>
+        <v>10.81556915993338</v>
       </c>
       <c r="J8" t="n">
-        <v>23.81059368362337</v>
+        <v>23.81059368362352</v>
       </c>
       <c r="K8" t="n">
-        <v>35.68590767208007</v>
+        <v>35.6859076720803</v>
       </c>
       <c r="L8" t="n">
-        <v>44.2715240310272</v>
+        <v>44.27152403102748</v>
       </c>
       <c r="M8" t="n">
-        <v>49.2606006939664</v>
+        <v>49.26060069396672</v>
       </c>
       <c r="N8" t="n">
-        <v>50.05768871356722</v>
+        <v>50.05768871356755</v>
       </c>
       <c r="O8" t="n">
-        <v>47.26805598328807</v>
+        <v>47.26805598328838</v>
       </c>
       <c r="P8" t="n">
-        <v>40.34219219661137</v>
+        <v>40.34219219661163</v>
       </c>
       <c r="Q8" t="n">
-        <v>30.29530624783732</v>
+        <v>30.29530624783752</v>
       </c>
       <c r="R8" t="n">
-        <v>17.62255356313237</v>
+        <v>17.62255356313249</v>
       </c>
       <c r="S8" t="n">
-        <v>6.392835282588169</v>
+        <v>6.39283528258821</v>
       </c>
       <c r="T8" t="n">
-        <v>1.228069619288193</v>
+        <v>1.228069619288201</v>
       </c>
       <c r="U8" t="n">
-        <v>0.02244330543530676</v>
+        <v>0.02244330543530691</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1501028381796491</v>
+        <v>0.1501028381796501</v>
       </c>
       <c r="H9" t="n">
-        <v>1.449677410840295</v>
+        <v>1.449677410840305</v>
       </c>
       <c r="I9" t="n">
-        <v>5.168014384694059</v>
+        <v>5.168014384694093</v>
       </c>
       <c r="J9" t="n">
-        <v>14.18142647906939</v>
+        <v>14.18142647906948</v>
       </c>
       <c r="K9" t="n">
-        <v>24.23831663710588</v>
+        <v>24.23831663710604</v>
       </c>
       <c r="L9" t="n">
-        <v>32.59140791264706</v>
+        <v>32.59140791264727</v>
       </c>
       <c r="M9" t="n">
-        <v>38.03263579665933</v>
+        <v>38.03263579665958</v>
       </c>
       <c r="N9" t="n">
-        <v>39.03924649655707</v>
+        <v>39.03924649655733</v>
       </c>
       <c r="O9" t="n">
-        <v>35.71328360847116</v>
+        <v>35.71328360847139</v>
       </c>
       <c r="P9" t="n">
-        <v>28.66305863449808</v>
+        <v>28.66305863449827</v>
       </c>
       <c r="Q9" t="n">
-        <v>19.16049562447591</v>
+        <v>19.16049562447603</v>
       </c>
       <c r="R9" t="n">
-        <v>9.31954288276804</v>
+        <v>9.319542882768102</v>
       </c>
       <c r="S9" t="n">
-        <v>2.788094384608831</v>
+        <v>2.788094384608849</v>
       </c>
       <c r="T9" t="n">
-        <v>0.605019773189024</v>
+        <v>0.6050197731890279</v>
       </c>
       <c r="U9" t="n">
-        <v>0.009875186722345339</v>
+        <v>0.009875186722345403</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1258411772486848</v>
+        <v>0.1258411772486856</v>
       </c>
       <c r="H10" t="n">
-        <v>1.118842466811035</v>
+        <v>1.118842466811042</v>
       </c>
       <c r="I10" t="n">
-        <v>3.784387403078631</v>
+        <v>3.784387403078656</v>
       </c>
       <c r="J10" t="n">
-        <v>8.896971231482015</v>
+        <v>8.896971231482073</v>
       </c>
       <c r="K10" t="n">
-        <v>14.62045677489265</v>
+        <v>14.62045677489274</v>
       </c>
       <c r="L10" t="n">
-        <v>18.70915102477265</v>
+        <v>18.70915102477277</v>
       </c>
       <c r="M10" t="n">
-        <v>19.72617653908247</v>
+        <v>19.7261765390826</v>
       </c>
       <c r="N10" t="n">
-        <v>19.25713215115557</v>
+        <v>19.25713215115569</v>
       </c>
       <c r="O10" t="n">
-        <v>17.78707839875047</v>
+        <v>17.78707839875059</v>
       </c>
       <c r="P10" t="n">
-        <v>15.21991838287729</v>
+        <v>15.21991838287739</v>
       </c>
       <c r="Q10" t="n">
-        <v>10.53748257852396</v>
+        <v>10.53748257852403</v>
       </c>
       <c r="R10" t="n">
-        <v>5.658276933381772</v>
+        <v>5.658276933381808</v>
       </c>
       <c r="S10" t="n">
-        <v>2.193068516233897</v>
+        <v>2.193068516233911</v>
       </c>
       <c r="T10" t="n">
-        <v>0.5376850300625622</v>
+        <v>0.5376850300625657</v>
       </c>
       <c r="U10" t="n">
-        <v>0.006864064213564633</v>
+        <v>0.006864064213564678</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,43 +31750,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I11" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T11" t="n">
         <v>19.1778794245112</v>
@@ -31835,40 +31835,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K12" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O12" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31908,13 +31908,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
@@ -31923,16 +31923,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P13" t="n">
         <v>237.6785118802169</v>
@@ -31941,16 +31941,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,43 +31987,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I14" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T14" t="n">
         <v>19.1778794245112</v>
@@ -32072,40 +32072,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K15" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O15" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32145,13 +32145,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
@@ -32160,16 +32160,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P16" t="n">
         <v>237.6785118802169</v>
@@ -32178,16 +32178,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,43 +32224,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I17" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J17" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T17" t="n">
         <v>19.1778794245112</v>
@@ -32309,40 +32309,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K18" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O18" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32382,13 +32382,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H19" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
@@ -32397,16 +32397,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M19" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P19" t="n">
         <v>237.6785118802169</v>
@@ -32415,16 +32415,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,43 +32461,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I20" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J20" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T20" t="n">
         <v>19.1778794245112</v>
@@ -32546,40 +32546,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O21" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32619,13 +32619,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H22" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
@@ -32634,16 +32634,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M22" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P22" t="n">
         <v>237.6785118802169</v>
@@ -32652,16 +32652,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -33023,7 +33023,7 @@
         <v>80.70516131752255</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026445</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K27" t="n">
         <v>378.5123470353157</v>
@@ -33044,7 +33044,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
@@ -33278,7 +33278,7 @@
         <v>557.7086478970249</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002933</v>
       </c>
       <c r="Q30" t="n">
         <v>299.2156706987486</v>
@@ -33409,43 +33409,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H32" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I32" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J32" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K32" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L32" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M32" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N32" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O32" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P32" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q32" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R32" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S32" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T32" t="n">
         <v>19.1778794245112</v>
@@ -33494,40 +33494,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I33" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K33" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O33" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S33" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T33" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U33" t="n">
         <v>0.1542136840462215</v>
@@ -33567,13 +33567,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H34" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I34" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J34" t="n">
         <v>138.937596729739</v>
@@ -33582,16 +33582,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L34" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M34" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N34" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O34" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P34" t="n">
         <v>237.6785118802169</v>
@@ -33600,16 +33600,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R34" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S34" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T34" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33971,7 +33971,7 @@
         <v>80.70516131752255</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026441</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K39" t="n">
         <v>378.5123470353157</v>
@@ -34208,7 +34208,7 @@
         <v>80.70516131752255</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026441</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K42" t="n">
         <v>378.5123470353157</v>
@@ -34466,7 +34466,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K12" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P12" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35571,19 +35571,19 @@
         <v>232.967806131446</v>
       </c>
       <c r="L13" t="n">
-        <v>346.6775187573245</v>
+        <v>346.6775187573246</v>
       </c>
       <c r="M13" t="n">
         <v>374.5535259806103</v>
       </c>
       <c r="N13" t="n">
-        <v>371.7770927546665</v>
+        <v>371.7770927546666</v>
       </c>
       <c r="O13" t="n">
         <v>329.2732768097662</v>
       </c>
       <c r="P13" t="n">
-        <v>261.8772177322368</v>
+        <v>261.8772177322369</v>
       </c>
       <c r="Q13" t="n">
         <v>105.3143851250201</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K15" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P15" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,16 +35802,16 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>72.49856320019266</v>
+        <v>72.49856320019271</v>
       </c>
       <c r="K16" t="n">
         <v>232.967806131446</v>
       </c>
       <c r="L16" t="n">
-        <v>346.6775187573245</v>
+        <v>346.6775187573247</v>
       </c>
       <c r="M16" t="n">
-        <v>374.5535259806102</v>
+        <v>374.5535259806103</v>
       </c>
       <c r="N16" t="n">
         <v>371.7770927546665</v>
@@ -35820,7 +35820,7 @@
         <v>329.2732768097662</v>
       </c>
       <c r="P16" t="n">
-        <v>261.8772177322368</v>
+        <v>261.8772177322369</v>
       </c>
       <c r="Q16" t="n">
         <v>105.3143851250201</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222617</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K18" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P18" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L19" t="n">
         <v>319.7573721701981</v>
@@ -36054,13 +36054,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P19" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P21" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L22" t="n">
         <v>319.7573721701981</v>
@@ -36291,13 +36291,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P22" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,7 +36355,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K23" t="n">
         <v>337.1912865554004</v>
@@ -36364,7 +36364,7 @@
         <v>455.5901143923319</v>
       </c>
       <c r="M23" t="n">
-        <v>878.7355412086605</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N23" t="n">
         <v>552.3018354129113</v>
@@ -36376,7 +36376,7 @@
         <v>398.7619862193716</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037194</v>
+        <v>421.5121150100803</v>
       </c>
       <c r="R23" t="n">
         <v>59.61319854222472</v>
@@ -36598,7 +36598,7 @@
         <v>337.1912865554004</v>
       </c>
       <c r="L26" t="n">
-        <v>455.5901143923319</v>
+        <v>732.8107985467472</v>
       </c>
       <c r="M26" t="n">
         <v>538.9211158302265</v>
@@ -36607,16 +36607,16 @@
         <v>552.3018354129113</v>
       </c>
       <c r="O26" t="n">
-        <v>888.8531821509644</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P26" t="n">
         <v>398.7619862193716</v>
       </c>
       <c r="Q26" t="n">
-        <v>425.2462182282767</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.62350453597776</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K27" t="n">
         <v>240.6709080609567</v>
@@ -36692,7 +36692,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,16 +36750,16 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165877</v>
       </c>
       <c r="K28" t="n">
-        <v>253.0227961629116</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L28" t="n">
         <v>366.7325087887907</v>
       </c>
       <c r="M28" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N28" t="n">
         <v>391.8320827861326</v>
@@ -36850,10 +36850,10 @@
         <v>398.7619862193716</v>
       </c>
       <c r="Q29" t="n">
-        <v>290.8164461252073</v>
+        <v>356.5328659981907</v>
       </c>
       <c r="R29" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36926,7 +36926,7 @@
         <v>415.1124034525805</v>
       </c>
       <c r="P30" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859631</v>
       </c>
       <c r="Q30" t="n">
         <v>159.2338966127271</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165877</v>
       </c>
       <c r="K31" t="n">
         <v>253.0227961629121</v>
@@ -36996,7 +36996,7 @@
         <v>366.7325087887907</v>
       </c>
       <c r="M31" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N31" t="n">
         <v>391.8320827861326</v>
@@ -37005,7 +37005,7 @@
         <v>349.3282668412323</v>
       </c>
       <c r="P31" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q31" t="n">
         <v>125.3693751564862</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K32" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L32" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M32" t="n">
-        <v>988.4346493230593</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N32" t="n">
-        <v>827.1370117794545</v>
+        <v>827.1370117794564</v>
       </c>
       <c r="O32" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P32" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q32" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R32" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K33" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O33" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P33" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>92.55355323165794</v>
+        <v>92.5535532316599</v>
       </c>
       <c r="K34" t="n">
-        <v>253.0227961629122</v>
+        <v>253.022796162912</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887906</v>
       </c>
       <c r="M34" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N34" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O34" t="n">
-        <v>349.3282668412323</v>
+        <v>349.3282668412322</v>
       </c>
       <c r="P34" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3693751564862</v>
+        <v>125.3693751564861</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37312,7 +37312,7 @@
         <v>455.5901143923319</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302273</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N35" t="n">
         <v>552.3018354129113</v>
@@ -37324,7 +37324,7 @@
         <v>398.7619862193716</v>
       </c>
       <c r="Q35" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037204</v>
       </c>
       <c r="R35" t="n">
         <v>59.61319854222472</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.62350453597743</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K39" t="n">
         <v>240.6709080609567</v>
@@ -37801,7 +37801,7 @@
         <v>250.7943048037194</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222526</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.62350453597746</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K42" t="n">
         <v>240.6709080609567</v>
@@ -38114,7 +38114,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127279</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
